--- a/sim1full.xlsx
+++ b/sim1full.xlsx
@@ -1137,6 +1137,45 @@
       <c r="CK2">
         <v>0.02708037134478049</v>
       </c>
+      <c r="CL2">
+        <v>0.01383461021045946</v>
+      </c>
+      <c r="CM2">
+        <v>0.02408512688489122</v>
+      </c>
+      <c r="CN2">
+        <v>0.02326993597605716</v>
+      </c>
+      <c r="CO2">
+        <v>0.02036905889681893</v>
+      </c>
+      <c r="CP2">
+        <v>0.0132425914270283</v>
+      </c>
+      <c r="CQ2">
+        <v>0.01774357927844359</v>
+      </c>
+      <c r="CR2">
+        <v>0.01621107261125238</v>
+      </c>
+      <c r="CS2">
+        <v>0.01152043044570955</v>
+      </c>
+      <c r="CT2">
+        <v>0.01555280354968115</v>
+      </c>
+      <c r="CU2">
+        <v>0.01876229356547617</v>
+      </c>
+      <c r="CV2">
+        <v>0.009423835958825313</v>
+      </c>
+      <c r="CW2">
+        <v>0.01915867269133237</v>
+      </c>
+      <c r="CX2">
+        <v>0.01931537817048882</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -1406,6 +1445,45 @@
       <c r="CK3">
         <v>0.00941925959818452</v>
       </c>
+      <c r="CL3">
+        <v>0.008586999440974834</v>
+      </c>
+      <c r="CM3">
+        <v>0.008500633018196899</v>
+      </c>
+      <c r="CN3">
+        <v>0.01238561108403042</v>
+      </c>
+      <c r="CO3">
+        <v>0.007904410915183468</v>
+      </c>
+      <c r="CP3">
+        <v>0.007748728855867411</v>
+      </c>
+      <c r="CQ3">
+        <v>0.007692183597060315</v>
+      </c>
+      <c r="CR3">
+        <v>0.006640429603753855</v>
+      </c>
+      <c r="CS3">
+        <v>0.004413427749636081</v>
+      </c>
+      <c r="CT3">
+        <v>0.006267547699125239</v>
+      </c>
+      <c r="CU3">
+        <v>0.007388718363425019</v>
+      </c>
+      <c r="CV3">
+        <v>0.003662224195463608</v>
+      </c>
+      <c r="CW3">
+        <v>0.01033960113500477</v>
+      </c>
+      <c r="CX3">
+        <v>0.005449982034252961</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -1675,6 +1753,45 @@
       <c r="CK4">
         <v>0.01485332962449272</v>
       </c>
+      <c r="CL4">
+        <v>0.007024798657974056</v>
+      </c>
+      <c r="CM4">
+        <v>0.009852397573788809</v>
+      </c>
+      <c r="CN4">
+        <v>0.009797867779392488</v>
+      </c>
+      <c r="CO4">
+        <v>0.01294535311073092</v>
+      </c>
+      <c r="CP4">
+        <v>0.01080852806351784</v>
+      </c>
+      <c r="CQ4">
+        <v>0.007613233434588002</v>
+      </c>
+      <c r="CR4">
+        <v>0.01327125813652706</v>
+      </c>
+      <c r="CS4">
+        <v>0.008961893052627977</v>
+      </c>
+      <c r="CT4">
+        <v>0.009652095474253924</v>
+      </c>
+      <c r="CU4">
+        <v>0.009380757816021844</v>
+      </c>
+      <c r="CV4">
+        <v>0.006016443216683355</v>
+      </c>
+      <c r="CW4">
+        <v>0.009824960354529422</v>
+      </c>
+      <c r="CX4">
+        <v>0.0116708411762531</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1944,6 +2061,45 @@
       <c r="CK5">
         <v>0.005166375521562685</v>
       </c>
+      <c r="CL5">
+        <v>0.004360219856673552</v>
+      </c>
+      <c r="CM5">
+        <v>0.00347731679074899</v>
+      </c>
+      <c r="CN5">
+        <v>0.005214994140644389</v>
+      </c>
+      <c r="CO5">
+        <v>0.00502356986386573</v>
+      </c>
+      <c r="CP5">
+        <v>0.006324468572238341</v>
+      </c>
+      <c r="CQ5">
+        <v>0.003300483427110763</v>
+      </c>
+      <c r="CR5">
+        <v>0.00543621372392615</v>
+      </c>
+      <c r="CS5">
+        <v>0.003433262990834633</v>
+      </c>
+      <c r="CT5">
+        <v>0.00388965041499785</v>
+      </c>
+      <c r="CU5">
+        <v>0.003694206003983517</v>
+      </c>
+      <c r="CV5">
+        <v>0.002338067429764258</v>
+      </c>
+      <c r="CW5">
+        <v>0.005302359556412705</v>
+      </c>
+      <c r="CX5">
+        <v>0.003293017313654255</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -2213,6 +2369,45 @@
       <c r="CK6">
         <v>0.02792383863840157</v>
       </c>
+      <c r="CL6">
+        <v>0.01711181429465195</v>
+      </c>
+      <c r="CM6">
+        <v>0.02524827153622966</v>
+      </c>
+      <c r="CN6">
+        <v>0.0214764395195719</v>
+      </c>
+      <c r="CO6">
+        <v>0.02184345922726961</v>
+      </c>
+      <c r="CP6">
+        <v>0.01535279982520335</v>
+      </c>
+      <c r="CQ6">
+        <v>0.02440906205020819</v>
+      </c>
+      <c r="CR6">
+        <v>0.0193643050197724</v>
+      </c>
+      <c r="CS6">
+        <v>0.01940245004031516</v>
+      </c>
+      <c r="CT6">
+        <v>0.02766177613301877</v>
+      </c>
+      <c r="CU6">
+        <v>0.01682236231285706</v>
+      </c>
+      <c r="CV6">
+        <v>0.01363794664080882</v>
+      </c>
+      <c r="CW6">
+        <v>0.02332371471493452</v>
+      </c>
+      <c r="CX6">
+        <v>0.02460047623181691</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -2482,6 +2677,45 @@
       <c r="CK7">
         <v>0.009712639526400547</v>
       </c>
+      <c r="CL7">
+        <v>0.0106211261139219</v>
+      </c>
+      <c r="CM7">
+        <v>0.008911154659845761</v>
+      </c>
+      <c r="CN7">
+        <v>0.01143100813138504</v>
+      </c>
+      <c r="CO7">
+        <v>0.008476566267298653</v>
+      </c>
+      <c r="CP7">
+        <v>0.008983489650001645</v>
+      </c>
+      <c r="CQ7">
+        <v>0.01058179884541923</v>
+      </c>
+      <c r="CR7">
+        <v>0.007932066396406203</v>
+      </c>
+      <c r="CS7">
+        <v>0.007432995826188556</v>
+      </c>
+      <c r="CT7">
+        <v>0.01114728291927622</v>
+      </c>
+      <c r="CU7">
+        <v>0.006624760288683897</v>
+      </c>
+      <c r="CV7">
+        <v>0.005299881957053656</v>
+      </c>
+      <c r="CW7">
+        <v>0.01258740159218688</v>
+      </c>
+      <c r="CX7">
+        <v>0.006941212971036339</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -2751,6 +2985,45 @@
       <c r="CK8">
         <v>0.0008463250221052757</v>
       </c>
+      <c r="CL8">
+        <v>0.0008733758804759845</v>
+      </c>
+      <c r="CM8">
+        <v>0.0007683387772236773</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>-0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0.0006546083781302516</v>
+      </c>
+      <c r="CS8">
+        <v>0.001010397488880856</v>
+      </c>
+      <c r="CT8">
+        <v>0.0006883682634050238</v>
+      </c>
+      <c r="CU8">
+        <v>0.001279649281200134</v>
+      </c>
+      <c r="CV8">
+        <v>-0</v>
+      </c>
+      <c r="CW8">
+        <v>-0</v>
+      </c>
+      <c r="CX8">
+        <v>-0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -3020,6 +3293,45 @@
       <c r="CK9">
         <v>0.0140794440446033</v>
       </c>
+      <c r="CL9">
+        <v>0.0135400353825079</v>
+      </c>
+      <c r="CM9">
+        <v>0.02305447232921641</v>
+      </c>
+      <c r="CN9">
+        <v>0.02416461322303408</v>
+      </c>
+      <c r="CO9">
+        <v>0.01799651273425074</v>
+      </c>
+      <c r="CP9">
+        <v>0.01226987732513439</v>
+      </c>
+      <c r="CQ9">
+        <v>0.01913212575438768</v>
+      </c>
+      <c r="CR9">
+        <v>0.01929420723432572</v>
+      </c>
+      <c r="CS9">
+        <v>0.009205558657279844</v>
+      </c>
+      <c r="CT9">
+        <v>0.02224119913548693</v>
+      </c>
+      <c r="CU9">
+        <v>0.02227550440123924</v>
+      </c>
+      <c r="CV9">
+        <v>0.01294697884053241</v>
+      </c>
+      <c r="CW9">
+        <v>0.0146859009412713</v>
+      </c>
+      <c r="CX9">
+        <v>0.01679292756716695</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -3289,6 +3601,45 @@
       <c r="CK10">
         <v>0.004897197928557671</v>
       </c>
+      <c r="CL10">
+        <v>0.008404159892591108</v>
+      </c>
+      <c r="CM10">
+        <v>0.008136872586782262</v>
+      </c>
+      <c r="CN10">
+        <v>0.01286181026387298</v>
+      </c>
+      <c r="CO10">
+        <v>0.006983721359559989</v>
+      </c>
+      <c r="CP10">
+        <v>0.007179557944615794</v>
+      </c>
+      <c r="CQ10">
+        <v>0.008294145256452749</v>
+      </c>
+      <c r="CR10">
+        <v>0.007903352725151991</v>
+      </c>
+      <c r="CS10">
+        <v>0.003526610244330956</v>
+      </c>
+      <c r="CT10">
+        <v>0.008962871293405179</v>
+      </c>
+      <c r="CU10">
+        <v>0.008772244600566465</v>
+      </c>
+      <c r="CV10">
+        <v>0.005031362958260092</v>
+      </c>
+      <c r="CW10">
+        <v>0.007925724317511493</v>
+      </c>
+      <c r="CX10">
+        <v>0.004738253257883535</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -3558,6 +3909,45 @@
       <c r="CK11">
         <v>0.001346162625037554</v>
       </c>
+      <c r="CL11">
+        <v>0.0008938634973479578</v>
+      </c>
+      <c r="CM11">
+        <v>0.002118977236141214</v>
+      </c>
+      <c r="CN11">
+        <v>0.001969272384899212</v>
+      </c>
+      <c r="CO11">
+        <v>0.002164186179555952</v>
+      </c>
+      <c r="CP11">
+        <v>0.002082839671098432</v>
+      </c>
+      <c r="CQ11">
+        <v>0.000689319236738968</v>
+      </c>
+      <c r="CR11">
+        <v>0.001701257308376826</v>
+      </c>
+      <c r="CS11">
+        <v>0.0001860278234477862</v>
+      </c>
+      <c r="CT11">
+        <v>0.00130540317636682</v>
+      </c>
+      <c r="CU11">
+        <v>0.001286145194595361</v>
+      </c>
+      <c r="CV11">
+        <v>0.001001539056157221</v>
+      </c>
+      <c r="CW11">
+        <v>0.0005857624307059775</v>
+      </c>
+      <c r="CX11">
+        <v>0.002138535963659172</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -3827,6 +4217,45 @@
       <c r="CK12">
         <v>0.007722442970280802</v>
       </c>
+      <c r="CL12">
+        <v>0.006875222426725953</v>
+      </c>
+      <c r="CM12">
+        <v>0.009430792219900688</v>
+      </c>
+      <c r="CN12">
+        <v>0.01017457398864593</v>
+      </c>
+      <c r="CO12">
+        <v>0.0114375049572381</v>
+      </c>
+      <c r="CP12">
+        <v>0.01001460432691131</v>
+      </c>
+      <c r="CQ12">
+        <v>0.008209016748103553</v>
+      </c>
+      <c r="CR12">
+        <v>0.01579527838081794</v>
+      </c>
+      <c r="CS12">
+        <v>0.007161124105997276</v>
+      </c>
+      <c r="CT12">
+        <v>0.01380292478020882</v>
+      </c>
+      <c r="CU12">
+        <v>0.01113729040047939</v>
+      </c>
+      <c r="CV12">
+        <v>0.008265717204968598</v>
+      </c>
+      <c r="CW12">
+        <v>0.007531231251933998</v>
+      </c>
+      <c r="CX12">
+        <v>0.01014671257227411</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -4096,6 +4525,45 @@
       <c r="CK13">
         <v>0.005777389687540383</v>
       </c>
+      <c r="CL13">
+        <v>0.01065804423333441</v>
+      </c>
+      <c r="CM13">
+        <v>0.007449650387835545</v>
+      </c>
+      <c r="CN13">
+        <v>0.005248574762591435</v>
+      </c>
+      <c r="CO13">
+        <v>0.01016674448509454</v>
+      </c>
+      <c r="CP13">
+        <v>0.006294285612980581</v>
+      </c>
+      <c r="CQ13">
+        <v>0.008105613292678561</v>
+      </c>
+      <c r="CR13">
+        <v>0.005985396238496354</v>
+      </c>
+      <c r="CS13">
+        <v>0.004397937452831337</v>
+      </c>
+      <c r="CT13">
+        <v>0.009191507550959191</v>
+      </c>
+      <c r="CU13">
+        <v>0.004485353186180789</v>
+      </c>
+      <c r="CV13">
+        <v>0.008022877990464623</v>
+      </c>
+      <c r="CW13">
+        <v>0.009555679227503281</v>
+      </c>
+      <c r="CX13">
+        <v>0.006754227455012758</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -4365,6 +4833,45 @@
       <c r="CK14">
         <v>0.01206422589831105</v>
       </c>
+      <c r="CL14">
+        <v>0.01256443949221228</v>
+      </c>
+      <c r="CM14">
+        <v>0.01670308037730025</v>
+      </c>
+      <c r="CN14">
+        <v>0.01662285222505538</v>
+      </c>
+      <c r="CO14">
+        <v>0.01600689369575608</v>
+      </c>
+      <c r="CP14">
+        <v>0.01493943485670314</v>
+      </c>
+      <c r="CQ14">
+        <v>0.01198025636208092</v>
+      </c>
+      <c r="CR14">
+        <v>0.01813440684829907</v>
+      </c>
+      <c r="CS14">
+        <v>0.007416013133777329</v>
+      </c>
+      <c r="CT14">
+        <v>0.01546702195111795</v>
+      </c>
+      <c r="CU14">
+        <v>0.01371345390285101</v>
+      </c>
+      <c r="CV14">
+        <v>0.01134217559864018</v>
+      </c>
+      <c r="CW14">
+        <v>0.02042298425990783</v>
+      </c>
+      <c r="CX14">
+        <v>0.01947460715537554</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -4634,6 +5141,45 @@
       <c r="CK15">
         <v>0.006617114723077602</v>
       </c>
+      <c r="CL15">
+        <v>0.006379844198021524</v>
+      </c>
+      <c r="CM15">
+        <v>0.006832656077363058</v>
+      </c>
+      <c r="CN15">
+        <v>0.006999095673707527</v>
+      </c>
+      <c r="CO15">
+        <v>0.01017302233486379</v>
+      </c>
+      <c r="CP15">
+        <v>0.0121934820530824</v>
+      </c>
+      <c r="CQ15">
+        <v>0.005140365811171931</v>
+      </c>
+      <c r="CR15">
+        <v>0.01484580324867156</v>
+      </c>
+      <c r="CS15">
+        <v>0.00576901331030982</v>
+      </c>
+      <c r="CT15">
+        <v>0.009598859273036492</v>
+      </c>
+      <c r="CU15">
+        <v>0.006856442653713489</v>
+      </c>
+      <c r="CV15">
+        <v>0.007241165459694221</v>
+      </c>
+      <c r="CW15">
+        <v>0.01047332526149119</v>
+      </c>
+      <c r="CX15">
+        <v>0.01176705136571283</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -4903,6 +5449,45 @@
       <c r="CK16">
         <v>0.01243998810033281</v>
       </c>
+      <c r="CL16">
+        <v>0.01554075987949265</v>
+      </c>
+      <c r="CM16">
+        <v>0.01750972336052323</v>
+      </c>
+      <c r="CN16">
+        <v>0.01534167007685393</v>
+      </c>
+      <c r="CO16">
+        <v>0.01716554169584593</v>
+      </c>
+      <c r="CP16">
+        <v>0.01732003544174122</v>
+      </c>
+      <c r="CQ16">
+        <v>0.01648071205535739</v>
+      </c>
+      <c r="CR16">
+        <v>0.02166174897763189</v>
+      </c>
+      <c r="CS16">
+        <v>0.0124898826484407</v>
+      </c>
+      <c r="CT16">
+        <v>0.02750920741007389</v>
+      </c>
+      <c r="CU16">
+        <v>0.01229554847915357</v>
+      </c>
+      <c r="CV16">
+        <v>0.01641412120083425</v>
+      </c>
+      <c r="CW16">
+        <v>0.02486288409328015</v>
+      </c>
+      <c r="CX16">
+        <v>0.02480327365175596</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -5172,6 +5757,45 @@
       <c r="CK17">
         <v>0.004326952382724456</v>
       </c>
+      <c r="CL17">
+        <v>0.009645988890719577</v>
+      </c>
+      <c r="CM17">
+        <v>0.006179902362537609</v>
+      </c>
+      <c r="CN17">
+        <v>0.008165727621551287</v>
+      </c>
+      <c r="CO17">
+        <v>0.006661254986447673</v>
+      </c>
+      <c r="CP17">
+        <v>0.01013459179433307</v>
+      </c>
+      <c r="CQ17">
+        <v>0.007144706316053634</v>
+      </c>
+      <c r="CR17">
+        <v>0.008873152482230418</v>
+      </c>
+      <c r="CS17">
+        <v>0.004784820752149538</v>
+      </c>
+      <c r="CT17">
+        <v>0.01108580000107455</v>
+      </c>
+      <c r="CU17">
+        <v>0.004842070321480921</v>
+      </c>
+      <c r="CV17">
+        <v>0.006378739196184012</v>
+      </c>
+      <c r="CW17">
+        <v>0.01341806443129405</v>
+      </c>
+      <c r="CX17">
+        <v>0.00699843381784064</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -5441,6 +6065,45 @@
       <c r="CK18">
         <v>0.000162563139579734</v>
       </c>
+      <c r="CL18">
+        <v>0.0002442691293741687</v>
+      </c>
+      <c r="CM18">
+        <v>0.0001726636833029413</v>
+      </c>
+      <c r="CN18">
+        <v>6.593194194793675e-05</v>
+      </c>
+      <c r="CO18">
+        <v>9.024512155369964e-05</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>5.44518082802383e-05</v>
+      </c>
+      <c r="CR18">
+        <v>0.0002874105156410105</v>
+      </c>
+      <c r="CS18">
+        <v>0.0003306709589904726</v>
+      </c>
+      <c r="CT18">
+        <v>0.0002659181988690767</v>
+      </c>
+      <c r="CU18">
+        <v>5.51131819004071e-05</v>
+      </c>
+      <c r="CV18">
+        <v>0.0001456773198721077</v>
+      </c>
+      <c r="CW18">
+        <v>8.02056781722278e-05</v>
+      </c>
+      <c r="CX18">
+        <v>4.880685304114025e-05</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -5710,6 +6373,45 @@
       <c r="CK19">
         <v>0.001950757674956807</v>
       </c>
+      <c r="CL19">
+        <v>0.002931229552490024</v>
+      </c>
+      <c r="CM19">
+        <v>0.00138130946642353</v>
+      </c>
+      <c r="CN19">
+        <v>0.002175754084281913</v>
+      </c>
+      <c r="CO19">
+        <v>0.002346373160396191</v>
+      </c>
+      <c r="CP19">
+        <v>0.003332728665648307</v>
+      </c>
+      <c r="CQ19">
+        <v>0.00176162246270761</v>
+      </c>
+      <c r="CR19">
+        <v>0.004087579155559466</v>
+      </c>
+      <c r="CS19">
+        <v>0.002206413767660848</v>
+      </c>
+      <c r="CT19">
+        <v>0.00239326378982169</v>
+      </c>
+      <c r="CU19">
+        <v>0.001580022802415835</v>
+      </c>
+      <c r="CV19">
+        <v>0.001992888460983643</v>
+      </c>
+      <c r="CW19">
+        <v>0.002726993057855745</v>
+      </c>
+      <c r="CX19">
+        <v>0.001063258133499528</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -5979,6 +6681,45 @@
       <c r="CK20">
         <v>0.004195832334143574</v>
       </c>
+      <c r="CL20">
+        <v>0.007320927207828039</v>
+      </c>
+      <c r="CM20">
+        <v>0.003091550708916522</v>
+      </c>
+      <c r="CN20">
+        <v>0.00210868986460273</v>
+      </c>
+      <c r="CO20">
+        <v>0.005374637159470948</v>
+      </c>
+      <c r="CP20">
+        <v>0.003579769993266653</v>
+      </c>
+      <c r="CQ20">
+        <v>0.004012353308164251</v>
+      </c>
+      <c r="CR20">
+        <v>0.003781354304978455</v>
+      </c>
+      <c r="CS20">
+        <v>0.003537101251298115</v>
+      </c>
+      <c r="CT20">
+        <v>0.003954733616439993</v>
+      </c>
+      <c r="CU20">
+        <v>0.00161583596667283</v>
+      </c>
+      <c r="CV20">
+        <v>0.004977547666434528</v>
+      </c>
+      <c r="CW20">
+        <v>0.006411228330879554</v>
+      </c>
+      <c r="CX20">
+        <v>0.002508402252255617</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -6248,6 +6989,45 @@
       <c r="CK21">
         <v>0.001459419942310808</v>
       </c>
+      <c r="CL21">
+        <v>0.004544023784169128</v>
+      </c>
+      <c r="CM21">
+        <v>0.001091135544323478</v>
+      </c>
+      <c r="CN21">
+        <v>0.001122367185998227</v>
+      </c>
+      <c r="CO21">
+        <v>0.002085680091734995</v>
+      </c>
+      <c r="CP21">
+        <v>0.002094655505838428</v>
+      </c>
+      <c r="CQ21">
+        <v>0.001739432490949989</v>
+      </c>
+      <c r="CR21">
+        <v>0.001548930022781581</v>
+      </c>
+      <c r="CS21">
+        <v>0.00135504839765474</v>
+      </c>
+      <c r="CT21">
+        <v>0.001593698621550445</v>
+      </c>
+      <c r="CU21">
+        <v>0.0006363271546505704</v>
+      </c>
+      <c r="CV21">
+        <v>0.001934339220009322</v>
+      </c>
+      <c r="CW21">
+        <v>0.003460027988093728</v>
+      </c>
+      <c r="CX21">
+        <v>0.0007077649264128702</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -6517,6 +7297,45 @@
       <c r="CK22">
         <v>0.0005240181813393871</v>
       </c>
+      <c r="CL22">
+        <v>0.002165164930541166</v>
+      </c>
+      <c r="CM22">
+        <v>0.001621546413257199</v>
+      </c>
+      <c r="CN22">
+        <v>0.0004345455409293596</v>
+      </c>
+      <c r="CO22">
+        <v>0.0006247182219372478</v>
+      </c>
+      <c r="CP22">
+        <v>0.001451275175639098</v>
+      </c>
+      <c r="CQ22">
+        <v>0.001502875260487239</v>
+      </c>
+      <c r="CR22">
+        <v>0.0006003919513936477</v>
+      </c>
+      <c r="CS22">
+        <v>0.0005621399020092731</v>
+      </c>
+      <c r="CT22">
+        <v>0.0007780358445211751</v>
+      </c>
+      <c r="CU22">
+        <v>0.0009970734467716885</v>
+      </c>
+      <c r="CV22">
+        <v>0.0009292342832545916</v>
+      </c>
+      <c r="CW22">
+        <v>0.001126947954776588</v>
+      </c>
+      <c r="CX22">
+        <v>0.0004534595056849234</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -6786,6 +7605,45 @@
       <c r="CK23">
         <v>0.001553476574966678</v>
       </c>
+      <c r="CL23">
+        <v>0.00431465035760004</v>
+      </c>
+      <c r="CM23">
+        <v>0.004816258278986526</v>
+      </c>
+      <c r="CN23">
+        <v>0.0007534945966696819</v>
+      </c>
+      <c r="CO23">
+        <v>0.001726378746733198</v>
+      </c>
+      <c r="CP23">
+        <v>0.002875457081712495</v>
+      </c>
+      <c r="CQ23">
+        <v>0.004768967748114472</v>
+      </c>
+      <c r="CR23">
+        <v>0.001750816373632008</v>
+      </c>
+      <c r="CS23">
+        <v>0.00247129713753713</v>
+      </c>
+      <c r="CT23">
+        <v>0.003433855534535899</v>
+      </c>
+      <c r="CU23">
+        <v>0.002270100164752714</v>
+      </c>
+      <c r="CV23">
+        <v>0.003460423746731341</v>
+      </c>
+      <c r="CW23">
+        <v>0.002542130228486414</v>
+      </c>
+      <c r="CX23">
+        <v>0.002046854415589367</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -7055,6 +7913,45 @@
       <c r="CK24">
         <v>0.000272443998961067</v>
       </c>
+      <c r="CL24">
+        <v>0.002119062938710654</v>
+      </c>
+      <c r="CM24">
+        <v>0.001552156942898624</v>
+      </c>
+      <c r="CN24">
+        <v>0.0004512528498211759</v>
+      </c>
+      <c r="CO24">
+        <v>0.0005519523259942047</v>
+      </c>
+      <c r="CP24">
+        <v>0.001344673998909333</v>
+      </c>
+      <c r="CQ24">
+        <v>0.001620484684943575</v>
+      </c>
+      <c r="CR24">
+        <v>0.0007145786716154453</v>
+      </c>
+      <c r="CS24">
+        <v>0.0004491856329440466</v>
+      </c>
+      <c r="CT24">
+        <v>0.001112625778192702</v>
+      </c>
+      <c r="CU24">
+        <v>0.00118377392798021</v>
+      </c>
+      <c r="CV24">
+        <v>0.001276632642562906</v>
+      </c>
+      <c r="CW24">
+        <v>0.0008638513897314398</v>
+      </c>
+      <c r="CX24">
+        <v>0.0003942409289839721</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -7324,6 +8221,45 @@
       <c r="CK25">
         <v>0.0007967608062800555</v>
       </c>
+      <c r="CL25">
+        <v>0.0005331566043731973</v>
+      </c>
+      <c r="CM25">
+        <v>0.0003835008833334203</v>
+      </c>
+      <c r="CN25">
+        <v>0.0003705867858742598</v>
+      </c>
+      <c r="CO25">
+        <v>0.0003515557420095144</v>
+      </c>
+      <c r="CP25">
+        <v>0.0004454482332643177</v>
+      </c>
+      <c r="CQ25">
+        <v>0.000262746266639415</v>
+      </c>
+      <c r="CR25">
+        <v>0.0007528849075110765</v>
+      </c>
+      <c r="CS25">
+        <v>0.0007003739306018678</v>
+      </c>
+      <c r="CT25">
+        <v>0.0003324336214789021</v>
+      </c>
+      <c r="CU25">
+        <v>0.0009633224711171068</v>
+      </c>
+      <c r="CV25">
+        <v>0.0003865898833332792</v>
+      </c>
+      <c r="CW25">
+        <v>0.0003596900966026232</v>
+      </c>
+      <c r="CX25">
+        <v>0.0004081349219282794</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -7593,6 +8529,45 @@
       <c r="CK26">
         <v>0</v>
       </c>
+      <c r="CL26">
+        <v>0</v>
+      </c>
+      <c r="CM26">
+        <v>0</v>
+      </c>
+      <c r="CN26">
+        <v>0.0004683685770872586</v>
+      </c>
+      <c r="CO26">
+        <v>0</v>
+      </c>
+      <c r="CP26">
+        <v>0</v>
+      </c>
+      <c r="CQ26">
+        <v>0.0008112271615136681</v>
+      </c>
+      <c r="CR26">
+        <v>0.0006576207713639603</v>
+      </c>
+      <c r="CS26">
+        <v>0</v>
+      </c>
+      <c r="CT26">
+        <v>0.0006511897410122549</v>
+      </c>
+      <c r="CU26">
+        <v>0</v>
+      </c>
+      <c r="CV26">
+        <v>0.0004693059450671205</v>
+      </c>
+      <c r="CW26">
+        <v>0</v>
+      </c>
+      <c r="CX26">
+        <v>0.0004087747430401547</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -7862,6 +8837,45 @@
       <c r="CK27">
         <v>0</v>
       </c>
+      <c r="CL27">
+        <v>0</v>
+      </c>
+      <c r="CM27">
+        <v>0</v>
+      </c>
+      <c r="CN27">
+        <v>0.0001972078219314773</v>
+      </c>
+      <c r="CO27">
+        <v>0</v>
+      </c>
+      <c r="CP27">
+        <v>0</v>
+      </c>
+      <c r="CQ27">
+        <v>0.0003480730495331901</v>
+      </c>
+      <c r="CR27">
+        <v>0.0005383638221850469</v>
+      </c>
+      <c r="CS27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>0.0004041294247707403</v>
+      </c>
+      <c r="CU27">
+        <v>0</v>
+      </c>
+      <c r="CV27">
+        <v>0.0002996181790605156</v>
+      </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0.0002469920630482062</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -8131,6 +9145,45 @@
       <c r="CK28">
         <v>0.003584298998773573</v>
       </c>
+      <c r="CL28">
+        <v>0.006298883458960536</v>
+      </c>
+      <c r="CM28">
+        <v>0.004210860599319389</v>
+      </c>
+      <c r="CN28">
+        <v>0.007313746653609176</v>
+      </c>
+      <c r="CO28">
+        <v>0.004453621788624896</v>
+      </c>
+      <c r="CP28">
+        <v>0.0064325088234938</v>
+      </c>
+      <c r="CQ28">
+        <v>0.004569332438575119</v>
+      </c>
+      <c r="CR28">
+        <v>0.005322364302960536</v>
+      </c>
+      <c r="CS28">
+        <v>0.002970181307428967</v>
+      </c>
+      <c r="CT28">
+        <v>0.004792127421561112</v>
+      </c>
+      <c r="CU28">
+        <v>0.00486040597818914</v>
+      </c>
+      <c r="CV28">
+        <v>0.004689574788060596</v>
+      </c>
+      <c r="CW28">
+        <v>0.007872805723773994</v>
+      </c>
+      <c r="CX28">
+        <v>0.004522613964209576</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -8400,6 +9453,45 @@
       <c r="CK29">
         <v>0.003695938493577139</v>
       </c>
+      <c r="CL29">
+        <v>0.007790991027119659</v>
+      </c>
+      <c r="CM29">
+        <v>0.00441421597324115</v>
+      </c>
+      <c r="CN29">
+        <v>0.006750050272133288</v>
+      </c>
+      <c r="CO29">
+        <v>0.004775994141226633</v>
+      </c>
+      <c r="CP29">
+        <v>0.007457529810924333</v>
+      </c>
+      <c r="CQ29">
+        <v>0.006285829779378795</v>
+      </c>
+      <c r="CR29">
+        <v>0.006357622858177671</v>
+      </c>
+      <c r="CS29">
+        <v>0.005002312604519971</v>
+      </c>
+      <c r="CT29">
+        <v>0.008523142179008722</v>
+      </c>
+      <c r="CU29">
+        <v>0.004357863289332829</v>
+      </c>
+      <c r="CV29">
+        <v>0.006786638796249264</v>
+      </c>
+      <c r="CW29">
+        <v>0.009584331736638606</v>
+      </c>
+      <c r="CX29">
+        <v>0.005760097283635282</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -8669,6 +9761,45 @@
       <c r="CK30">
         <v>0.002342849376682583</v>
       </c>
+      <c r="CL30">
+        <v>0.001178935658400634</v>
+      </c>
+      <c r="CM30">
+        <v>0.0007022898190592962</v>
+      </c>
+      <c r="CN30">
+        <v>0.001007593230794402</v>
+      </c>
+      <c r="CO30">
+        <v>0.001437006113104386</v>
+      </c>
+      <c r="CP30">
+        <v>0.001328456659193668</v>
+      </c>
+      <c r="CQ30">
+        <v>0.0007063425762473546</v>
+      </c>
+      <c r="CR30">
+        <v>0.0009518702313019977</v>
+      </c>
+      <c r="CS30">
+        <v>0.001128433231441043</v>
+      </c>
+      <c r="CT30">
+        <v>0.0007934138462414688</v>
+      </c>
+      <c r="CU30">
+        <v>0.0008665780796609589</v>
+      </c>
+      <c r="CV30">
+        <v>9.082535707268559e-05</v>
+      </c>
+      <c r="CW30">
+        <v>0.0008056832053250473</v>
+      </c>
+      <c r="CX30">
+        <v>0.0007028884402671111</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -8938,6 +10069,45 @@
       <c r="CK31">
         <v>0.003694463847148977</v>
       </c>
+      <c r="CL31">
+        <v>0.0009644562909195149</v>
+      </c>
+      <c r="CM31">
+        <v>0.0008139674415522595</v>
+      </c>
+      <c r="CN31">
+        <v>0.0007970753468485219</v>
+      </c>
+      <c r="CO31">
+        <v>0.002353439333560183</v>
+      </c>
+      <c r="CP31">
+        <v>0.00185303439430448</v>
+      </c>
+      <c r="CQ31">
+        <v>0.0006990928973425047</v>
+      </c>
+      <c r="CR31">
+        <v>0.001902364200193213</v>
+      </c>
+      <c r="CS31">
+        <v>0.002291393110046926</v>
+      </c>
+      <c r="CT31">
+        <v>0.001221866439977237</v>
+      </c>
+      <c r="CU31">
+        <v>0.001100212336447006</v>
+      </c>
+      <c r="CV31">
+        <v>0.0001492114011314993</v>
+      </c>
+      <c r="CW31">
+        <v>0.0007655813263269679</v>
+      </c>
+      <c r="CX31">
+        <v>0.001505197503298955</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -9207,6 +10377,45 @@
       <c r="CK32">
         <v>0</v>
       </c>
+      <c r="CL32">
+        <v>0</v>
+      </c>
+      <c r="CM32">
+        <v>0</v>
+      </c>
+      <c r="CN32">
+        <v>0</v>
+      </c>
+      <c r="CO32">
+        <v>0</v>
+      </c>
+      <c r="CP32">
+        <v>0</v>
+      </c>
+      <c r="CQ32">
+        <v>0.0002087614830628255</v>
+      </c>
+      <c r="CR32">
+        <v>0.0002695931335423603</v>
+      </c>
+      <c r="CS32">
+        <v>0</v>
+      </c>
+      <c r="CT32">
+        <v>0</v>
+      </c>
+      <c r="CU32">
+        <v>0.000248820615284665</v>
+      </c>
+      <c r="CV32">
+        <v>0</v>
+      </c>
+      <c r="CW32">
+        <v>0</v>
+      </c>
+      <c r="CX32">
+        <v>0.0003151128569648842</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -9476,6 +10685,45 @@
       <c r="CK33">
         <v>0.0001107097148175262</v>
       </c>
+      <c r="CL33">
+        <v>7.696350774400025e-05</v>
+      </c>
+      <c r="CM33">
+        <v>0.0001312224003695079</v>
+      </c>
+      <c r="CN33">
+        <v>7.946242083769643e-05</v>
+      </c>
+      <c r="CO33">
+        <v>4.954832082109746e-05</v>
+      </c>
+      <c r="CP33">
+        <v>0</v>
+      </c>
+      <c r="CQ33">
+        <v>4.769484388348633e-05</v>
+      </c>
+      <c r="CR33">
+        <v>4.234191441367604e-05</v>
+      </c>
+      <c r="CS33">
+        <v>0.0001635668398550542</v>
+      </c>
+      <c r="CT33">
+        <v>6.540177077221827e-05</v>
+      </c>
+      <c r="CU33">
+        <v>3.193883071844891e-05</v>
+      </c>
+      <c r="CV33">
+        <v>0.0001095974258567523</v>
+      </c>
+      <c r="CW33">
+        <v>3.238565030234015e-05</v>
+      </c>
+      <c r="CX33">
+        <v>2.304708692847701e-05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -9745,6 +10993,45 @@
       <c r="CK34">
         <v>0.001328516577810314</v>
       </c>
+      <c r="CL34">
+        <v>0.000923562092928003</v>
+      </c>
+      <c r="CM34">
+        <v>0.001049779202956063</v>
+      </c>
+      <c r="CN34">
+        <v>0.002622259887643982</v>
+      </c>
+      <c r="CO34">
+        <v>0.001288256341348534</v>
+      </c>
+      <c r="CP34">
+        <v>0.0008181546504977314</v>
+      </c>
+      <c r="CQ34">
+        <v>0.001543021453173207</v>
+      </c>
+      <c r="CR34">
+        <v>0.000602190655334286</v>
+      </c>
+      <c r="CS34">
+        <v>0.001091405572750545</v>
+      </c>
+      <c r="CT34">
+        <v>0.0005886159369499646</v>
+      </c>
+      <c r="CU34">
+        <v>0.0009156444806405895</v>
+      </c>
+      <c r="CV34">
+        <v>0.001499309882521055</v>
+      </c>
+      <c r="CW34">
+        <v>0.001101112110279565</v>
+      </c>
+      <c r="CX34">
+        <v>0.000502081185392512</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -10014,6 +11301,45 @@
       <c r="CK35">
         <v>0.002094951777910757</v>
       </c>
+      <c r="CL35">
+        <v>0.0007555418857951873</v>
+      </c>
+      <c r="CM35">
+        <v>0.001216714337635543</v>
+      </c>
+      <c r="CN35">
+        <v>0.002074387407131444</v>
+      </c>
+      <c r="CO35">
+        <v>0.002109826198921491</v>
+      </c>
+      <c r="CP35">
+        <v>0.001141225569340489</v>
+      </c>
+      <c r="CQ35">
+        <v>0.001527184364407821</v>
+      </c>
+      <c r="CR35">
+        <v>0.00120351063278013</v>
+      </c>
+      <c r="CS35">
+        <v>0.002216204858194197</v>
+      </c>
+      <c r="CT35">
+        <v>0.0009064753064266963</v>
+      </c>
+      <c r="CU35">
+        <v>0.001162507311279471</v>
+      </c>
+      <c r="CV35">
+        <v>0.002463124126473146</v>
+      </c>
+      <c r="CW35">
+        <v>0.001046305625152528</v>
+      </c>
+      <c r="CX35">
+        <v>0.001075179649303945</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -10283,6 +11609,45 @@
       <c r="CK36">
         <v>0.001985800967117773</v>
       </c>
+      <c r="CL36">
+        <v>0.001456278587432698</v>
+      </c>
+      <c r="CM36">
+        <v>0.002847094508671193</v>
+      </c>
+      <c r="CN36">
+        <v>0.005116089591808305</v>
+      </c>
+      <c r="CO36">
+        <v>0.002933061287024454</v>
+      </c>
+      <c r="CP36">
+        <v>0.001295523095635744</v>
+      </c>
+      <c r="CQ36">
+        <v>0.003837828376211644</v>
+      </c>
+      <c r="CR36">
+        <v>0.00174970476187655</v>
+      </c>
+      <c r="CS36">
+        <v>0.002276461423814107</v>
+      </c>
+      <c r="CT36">
+        <v>0.002088779359406002</v>
+      </c>
+      <c r="CU36">
+        <v>0.002760484519134542</v>
+      </c>
+      <c r="CV36">
+        <v>0.00530047651054413</v>
+      </c>
+      <c r="CW36">
+        <v>0.001563969747542145</v>
+      </c>
+      <c r="CX36">
+        <v>0.001547053352862929</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -10552,6 +11917,45 @@
       <c r="CK37">
         <v>0.001754567887930444</v>
       </c>
+      <c r="CL37">
+        <v>0.001671463567530682</v>
+      </c>
+      <c r="CM37">
+        <v>0.002162349956061293</v>
+      </c>
+      <c r="CN37">
+        <v>0.003248111520623557</v>
+      </c>
+      <c r="CO37">
+        <v>0.002797630105474205</v>
+      </c>
+      <c r="CP37">
+        <v>0.001828747373540642</v>
+      </c>
+      <c r="CQ37">
+        <v>0.003305965327544345</v>
+      </c>
+      <c r="CR37">
+        <v>0.001964406460261675</v>
+      </c>
+      <c r="CS37">
+        <v>0.003088648619348654</v>
+      </c>
+      <c r="CT37">
+        <v>0.002583523679714718</v>
+      </c>
+      <c r="CU37">
+        <v>0.001523721780642751</v>
+      </c>
+      <c r="CV37">
+        <v>0.006719920140277962</v>
+      </c>
+      <c r="CW37">
+        <v>0.002647763914113047</v>
+      </c>
+      <c r="CX37">
+        <v>0.002285008823592476</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -10821,6 +12225,45 @@
       <c r="CK38">
         <v>0.0007910271412457631</v>
       </c>
+      <c r="CL38">
+        <v>0.0005079254662806118</v>
+      </c>
+      <c r="CM38">
+        <v>0.0004833206560243273</v>
+      </c>
+      <c r="CN38">
+        <v>0.0008654577074733809</v>
+      </c>
+      <c r="CO38">
+        <v>0.0009854425638346047</v>
+      </c>
+      <c r="CP38">
+        <v>0.0006013778273177135</v>
+      </c>
+      <c r="CQ38">
+        <v>0.0008151297652149597</v>
+      </c>
+      <c r="CR38">
+        <v>0.0009049395821938575</v>
+      </c>
+      <c r="CS38">
+        <v>0.001424261678796648</v>
+      </c>
+      <c r="CT38">
+        <v>0.0005577453744618159</v>
+      </c>
+      <c r="CU38">
+        <v>0.0004972078053622485</v>
+      </c>
+      <c r="CV38">
+        <v>0.002099482498720614</v>
+      </c>
+      <c r="CW38">
+        <v>0.0005381129185657732</v>
+      </c>
+      <c r="CX38">
+        <v>0.00034715684680898</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -11090,6 +12533,45 @@
       <c r="CK39">
         <v>0.0003220646249237125</v>
       </c>
+      <c r="CL39">
+        <v>0.0001847124185856006</v>
+      </c>
+      <c r="CM39">
+        <v>0.000239949532104243</v>
+      </c>
+      <c r="CN39">
+        <v>0.0005398770356914081</v>
+      </c>
+      <c r="CO39">
+        <v>0.00031095842722206</v>
+      </c>
+      <c r="CP39">
+        <v>0.0002181745734660617</v>
+      </c>
+      <c r="CQ39">
+        <v>0.0001189766327016129</v>
+      </c>
+      <c r="CR39">
+        <v>0.0001343259609641452</v>
+      </c>
+      <c r="CS39">
+        <v>0.0001909959752313453</v>
+      </c>
+      <c r="CT39">
+        <v>0.0002207309763562367</v>
+      </c>
+      <c r="CU39">
+        <v>0.0001985749260725247</v>
+      </c>
+      <c r="CV39">
+        <v>0.0001743383584326808</v>
+      </c>
+      <c r="CW39">
+        <v>0.000177598727464446</v>
+      </c>
+      <c r="CX39">
+        <v>0.0001738001805386906</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -11359,6 +12841,45 @@
       <c r="CK40">
         <v>1.098974232957216e-05</v>
       </c>
+      <c r="CL40">
+        <v>5.780717259643936e-05</v>
+      </c>
+      <c r="CM40">
+        <v>4.011276949608425e-05</v>
+      </c>
+      <c r="CN40">
+        <v>8.026693185725113e-06</v>
+      </c>
+      <c r="CO40">
+        <v>3.161035659970501e-05</v>
+      </c>
+      <c r="CP40">
+        <v>3.319245838591859e-05</v>
+      </c>
+      <c r="CQ40">
+        <v>2.449464818718445e-05</v>
+      </c>
+      <c r="CR40">
+        <v>1.094700635297689e-05</v>
+      </c>
+      <c r="CS40">
+        <v>2.424184305329653e-05</v>
+      </c>
+      <c r="CT40">
+        <v>4.018410894289454e-05</v>
+      </c>
+      <c r="CU40">
+        <v>1.626709415950375e-05</v>
+      </c>
+      <c r="CV40">
+        <v>9.690774975059874e-05</v>
+      </c>
+      <c r="CW40">
+        <v>1.78894793366495e-05</v>
+      </c>
+      <c r="CX40">
+        <v>1.792149659483916e-05</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -11628,6 +13149,45 @@
       <c r="CK41">
         <v>0</v>
       </c>
+      <c r="CL41">
+        <v>9.484903653506813e-06</v>
+      </c>
+      <c r="CM41">
+        <v>0</v>
+      </c>
+      <c r="CN41">
+        <v>8.299834489657789e-06</v>
+      </c>
+      <c r="CO41">
+        <v>4.38803700488898e-05</v>
+      </c>
+      <c r="CP41">
+        <v>1.707510495599214e-05</v>
+      </c>
+      <c r="CQ41">
+        <v>0</v>
+      </c>
+      <c r="CR41">
+        <v>7.247834512468465e-06</v>
+      </c>
+      <c r="CS41">
+        <v>7.146040615356193e-06</v>
+      </c>
+      <c r="CT41">
+        <v>7.742625058961351e-06</v>
+      </c>
+      <c r="CU41">
+        <v>3.332471597982135e-06</v>
+      </c>
+      <c r="CV41">
+        <v>2.312524506682247e-06</v>
+      </c>
+      <c r="CW41">
+        <v>0</v>
+      </c>
+      <c r="CX41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -11897,6 +13457,45 @@
       <c r="CK42">
         <v>0</v>
       </c>
+      <c r="CL42">
+        <v>0</v>
+      </c>
+      <c r="CM42">
+        <v>0</v>
+      </c>
+      <c r="CN42">
+        <v>0</v>
+      </c>
+      <c r="CO42">
+        <v>1.307751237950023e-06</v>
+      </c>
+      <c r="CP42">
+        <v>0</v>
+      </c>
+      <c r="CQ42">
+        <v>1.186237350235398e-06</v>
+      </c>
+      <c r="CR42">
+        <v>6.216446356937165e-07</v>
+      </c>
+      <c r="CS42">
+        <v>0</v>
+      </c>
+      <c r="CT42">
+        <v>0</v>
+      </c>
+      <c r="CU42">
+        <v>0</v>
+      </c>
+      <c r="CV42">
+        <v>3.793967994778495e-06</v>
+      </c>
+      <c r="CW42">
+        <v>0</v>
+      </c>
+      <c r="CX42">
+        <v>2.397170970413703e-07</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -12166,6 +13765,45 @@
       <c r="CK43">
         <v>6.437489588501836e-05</v>
       </c>
+      <c r="CL43">
+        <v>7.587922922805449e-05</v>
+      </c>
+      <c r="CM43">
+        <v>4.758607005244122e-05</v>
+      </c>
+      <c r="CN43">
+        <v>4.979900693794673e-05</v>
+      </c>
+      <c r="CO43">
+        <v>0.0001532991765798752</v>
+      </c>
+      <c r="CP43">
+        <v>3.415020991198428e-05</v>
+      </c>
+      <c r="CQ43">
+        <v>0</v>
+      </c>
+      <c r="CR43">
+        <v>6.900938157972318e-05</v>
+      </c>
+      <c r="CS43">
+        <v>7.146040615356192e-05</v>
+      </c>
+      <c r="CT43">
+        <v>3.097050023584541e-05</v>
+      </c>
+      <c r="CU43">
+        <v>4.332213077376776e-05</v>
+      </c>
+      <c r="CV43">
+        <v>1.187540033810606e-05</v>
+      </c>
+      <c r="CW43">
+        <v>3.4853886835184e-05</v>
+      </c>
+      <c r="CX43">
+        <v>2.093699964335014e-05</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -12435,6 +14073,45 @@
       <c r="CK44">
         <v>0.001405104375797739</v>
       </c>
+      <c r="CL44">
+        <v>0.0006937355813237994</v>
+      </c>
+      <c r="CM44">
+        <v>0.0009416290437459696</v>
+      </c>
+      <c r="CN44">
+        <v>0.0008431726024402314</v>
+      </c>
+      <c r="CO44">
+        <v>0.0004275183588665939</v>
+      </c>
+      <c r="CP44">
+        <v>0.0002798596232882545</v>
+      </c>
+      <c r="CQ44">
+        <v>0.0007553985550260286</v>
+      </c>
+      <c r="CR44">
+        <v>0.0004915654543974943</v>
+      </c>
+      <c r="CS44">
+        <v>0.0007205192245613341</v>
+      </c>
+      <c r="CT44">
+        <v>0.0001981106036672594</v>
+      </c>
+      <c r="CU44">
+        <v>0.00130442048036293</v>
+      </c>
+      <c r="CV44">
+        <v>0.0003157151536593722</v>
+      </c>
+      <c r="CW44">
+        <v>0.0005834908024612602</v>
+      </c>
+      <c r="CX44">
+        <v>0.0004301288943040648</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -12704,6 +14381,45 @@
       <c r="CK45">
         <v>0.002100280624995678</v>
       </c>
+      <c r="CL45">
+        <v>0.001093886680882626</v>
+      </c>
+      <c r="CM45">
+        <v>0.002553781663901624</v>
+      </c>
+      <c r="CN45">
+        <v>0.001645049217191876</v>
+      </c>
+      <c r="CO45">
+        <v>0.0009733602759301964</v>
+      </c>
+      <c r="CP45">
+        <v>0.0004431492325873639</v>
+      </c>
+      <c r="CQ45">
+        <v>0.001878839729587828</v>
+      </c>
+      <c r="CR45">
+        <v>0.001428275926759197</v>
+      </c>
+      <c r="CS45">
+        <v>0.001502864068850809</v>
+      </c>
+      <c r="CT45">
+        <v>0.0007030209578827806</v>
+      </c>
+      <c r="CU45">
+        <v>0.003932566207317443</v>
+      </c>
+      <c r="CV45">
+        <v>0.001116140682792326</v>
+      </c>
+      <c r="CW45">
+        <v>0.0008287638965180457</v>
+      </c>
+      <c r="CX45">
+        <v>0.001325348105956436</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -12973,6 +14689,45 @@
       <c r="CK46">
         <v>0.001855717164650442</v>
       </c>
+      <c r="CL46">
+        <v>0.00125552332491936</v>
+      </c>
+      <c r="CM46">
+        <v>0.001939580738155805</v>
+      </c>
+      <c r="CN46">
+        <v>0.001044411599614909</v>
+      </c>
+      <c r="CO46">
+        <v>0.000928416335335953</v>
+      </c>
+      <c r="CP46">
+        <v>0.0006255450002479551</v>
+      </c>
+      <c r="CQ46">
+        <v>0.001618461899060078</v>
+      </c>
+      <c r="CR46">
+        <v>0.001603535932858115</v>
+      </c>
+      <c r="CS46">
+        <v>0.002039050160378996</v>
+      </c>
+      <c r="CT46">
+        <v>0.0008695371695660523</v>
+      </c>
+      <c r="CU46">
+        <v>0.00217068298785022</v>
+      </c>
+      <c r="CV46">
+        <v>0.001415038108132241</v>
+      </c>
+      <c r="CW46">
+        <v>0.001403077739814829</v>
+      </c>
+      <c r="CX46">
+        <v>0.001957548594453908</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -13242,6 +14997,45 @@
       <c r="CK47">
         <v>0.00152532992125097</v>
       </c>
+      <c r="CL47">
+        <v>0.0007513822038106617</v>
+      </c>
+      <c r="CM47">
+        <v>0.001059800809759473</v>
+      </c>
+      <c r="CN47">
+        <v>0.0006609220155897003</v>
+      </c>
+      <c r="CO47">
+        <v>0.0005145657310692883</v>
+      </c>
+      <c r="CP47">
+        <v>0.0002520337370906471</v>
+      </c>
+      <c r="CQ47">
+        <v>0.0009300429877812452</v>
+      </c>
+      <c r="CR47">
+        <v>0.0009023324620701752</v>
+      </c>
+      <c r="CS47">
+        <v>0.001208698949331565</v>
+      </c>
+      <c r="CT47">
+        <v>0.0003024814590845589</v>
+      </c>
+      <c r="CU47">
+        <v>0.001416696000369225</v>
+      </c>
+      <c r="CV47">
+        <v>0.0006924751264631711</v>
+      </c>
+      <c r="CW47">
+        <v>0.0005560457238532604</v>
+      </c>
+      <c r="CX47">
+        <v>0.0004922111664356972</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -13511,6 +15305,45 @@
       <c r="CK48">
         <v>0.000145839716705759</v>
       </c>
+      <c r="CL48">
+        <v>4.960349848205594e-05</v>
+      </c>
+      <c r="CM48">
+        <v>9.740816266171626e-05</v>
+      </c>
+      <c r="CN48">
+        <v>5.386121689016234e-05</v>
+      </c>
+      <c r="CO48">
+        <v>6.187954633754341e-05</v>
+      </c>
+      <c r="CP48">
+        <v>4.278330191551794e-05</v>
+      </c>
+      <c r="CQ48">
+        <v>3.35089017656478e-05</v>
+      </c>
+      <c r="CR48">
+        <v>7.956272455452291e-05</v>
+      </c>
+      <c r="CS48">
+        <v>2.442563706548784e-05</v>
+      </c>
+      <c r="CT48">
+        <v>1.775355074497915e-05</v>
+      </c>
+      <c r="CU48">
+        <v>8.179732859274691e-05</v>
+      </c>
+      <c r="CV48">
+        <v>5.35677777118972e-05</v>
+      </c>
+      <c r="CW48">
+        <v>2.217846192007306e-05</v>
+      </c>
+      <c r="CX48">
+        <v>6.26818210777854e-05</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -13780,6 +15613,45 @@
       <c r="CK49">
         <v>0.0002910014440764688</v>
       </c>
+      <c r="CL49">
+        <v>0.0002368112693575901</v>
+      </c>
+      <c r="CM49">
+        <v>0.0001530099122266939</v>
+      </c>
+      <c r="CN49">
+        <v>0.0001481183464479464</v>
+      </c>
+      <c r="CO49">
+        <v>0.0001269060545542146</v>
+      </c>
+      <c r="CP49">
+        <v>0.0001203676378718628</v>
+      </c>
+      <c r="CQ49">
+        <v>0.0001729973090266956</v>
+      </c>
+      <c r="CR49">
+        <v>0.0003025877578541673</v>
+      </c>
+      <c r="CS49">
+        <v>0.0003602106179414705</v>
+      </c>
+      <c r="CT49">
+        <v>7.564855616539506e-05</v>
+      </c>
+      <c r="CU49">
+        <v>0.0002789406770616534</v>
+      </c>
+      <c r="CV49">
+        <v>0.0001718040876538392</v>
+      </c>
+      <c r="CW49">
+        <v>0.0001538913684249968</v>
+      </c>
+      <c r="CX49">
+        <v>8.391551429850608e-05</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -14049,6 +15921,45 @@
       <c r="CK50">
         <v>0.0001232665463078972</v>
       </c>
+      <c r="CL50">
+        <v>0.000143098791438413</v>
+      </c>
+      <c r="CM50">
+        <v>0.0002081846107510249</v>
+      </c>
+      <c r="CN50">
+        <v>2.340175784456698e-05</v>
+      </c>
+      <c r="CO50">
+        <v>5.533677254936344e-05</v>
+      </c>
+      <c r="CP50">
+        <v>7.311317396384408e-05</v>
+      </c>
+      <c r="CQ50">
+        <v>0.0001460726635591563</v>
+      </c>
+      <c r="CR50">
+        <v>8.882515186893963e-05</v>
+      </c>
+      <c r="CS50">
+        <v>0.0001863535630643603</v>
+      </c>
+      <c r="CT50">
+        <v>3.787334294035375e-05</v>
+      </c>
+      <c r="CU50">
+        <v>0.0002234829820814046</v>
+      </c>
+      <c r="CV50">
+        <v>0.0001316044634588243</v>
+      </c>
+      <c r="CW50">
+        <v>6.043118492346524e-05</v>
+      </c>
+      <c r="CX50">
+        <v>7.663887934332223e-05</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -14318,6 +16229,45 @@
       <c r="CK51">
         <v>8.892834718272394e-05</v>
       </c>
+      <c r="CL51">
+        <v>7.112947964087628e-05</v>
+      </c>
+      <c r="CM51">
+        <v>6.398897998522833e-05</v>
+      </c>
+      <c r="CN51">
+        <v>5.460459804134765e-05</v>
+      </c>
+      <c r="CO51">
+        <v>1.953379046853846e-05</v>
+      </c>
+      <c r="CP51">
+        <v>2.469199624136172e-05</v>
+      </c>
+      <c r="CQ51">
+        <v>3.297867133568905e-05</v>
+      </c>
+      <c r="CR51">
+        <v>4.148774211273736e-05</v>
+      </c>
+      <c r="CS51">
+        <v>5.640241317807298e-05</v>
+      </c>
+      <c r="CT51">
+        <v>1.102831263308165e-05</v>
+      </c>
+      <c r="CU51">
+        <v>0.0002289127883145608</v>
+      </c>
+      <c r="CV51">
+        <v>2.864499684127004e-05</v>
+      </c>
+      <c r="CW51">
+        <v>4.427622798988352e-05</v>
+      </c>
+      <c r="CX51">
+        <v>4.697004823106455e-05</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -14587,6 +16537,45 @@
       <c r="CK52">
         <v>4.877636413656179e-05</v>
       </c>
+      <c r="CL52">
+        <v>3.611740884075305e-05</v>
+      </c>
+      <c r="CM52">
+        <v>2.617569233364376e-05</v>
+      </c>
+      <c r="CN52">
+        <v>2.299140970162007e-05</v>
+      </c>
+      <c r="CO52">
+        <v>1.241450655561469e-05</v>
+      </c>
+      <c r="CP52">
+        <v>2.015346737756487e-05</v>
+      </c>
+      <c r="CQ52">
+        <v>1.415015084054565e-05</v>
+      </c>
+      <c r="CR52">
+        <v>3.396410270210159e-05</v>
+      </c>
+      <c r="CS52">
+        <v>4.387617261300107e-05</v>
+      </c>
+      <c r="CT52">
+        <v>6.844188966599984e-06</v>
+      </c>
+      <c r="CU52">
+        <v>0.0001144516484978404</v>
+      </c>
+      <c r="CV52">
+        <v>1.828777556088293e-05</v>
+      </c>
+      <c r="CW52">
+        <v>2.270575794353001e-05</v>
+      </c>
+      <c r="CX52">
+        <v>2.838049393116435e-05</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -14856,6 +16845,45 @@
       <c r="CK53">
         <v>0.0002636322729218287</v>
       </c>
+      <c r="CL53">
+        <v>0.0001417438599893195</v>
+      </c>
+      <c r="CM53">
+        <v>0.000190057744939106</v>
+      </c>
+      <c r="CN53">
+        <v>9.46834467326034e-05</v>
+      </c>
+      <c r="CO53">
+        <v>5.398069005166896e-05</v>
+      </c>
+      <c r="CP53">
+        <v>4.892302758680843e-05</v>
+      </c>
+      <c r="CQ53">
+        <v>0.0001046488847814151</v>
+      </c>
+      <c r="CR53">
+        <v>0.0001209833310180035</v>
+      </c>
+      <c r="CS53">
+        <v>0.0002479580647787905</v>
+      </c>
+      <c r="CT53">
+        <v>4.867337750358484e-05</v>
+      </c>
+      <c r="CU53">
+        <v>0.0005211802201226197</v>
+      </c>
+      <c r="CV53">
+        <v>0.0001066725895512587</v>
+      </c>
+      <c r="CW53">
+        <v>9.987678410468639e-05</v>
+      </c>
+      <c r="CX53">
+        <v>0.0002120163970914781</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -15125,6 +17153,45 @@
       <c r="CK54">
         <v>9.073664582876738e-06</v>
       </c>
+      <c r="CL54">
+        <v>5.301625805208965e-05</v>
+      </c>
+      <c r="CM54">
+        <v>5.691669055701469e-05</v>
+      </c>
+      <c r="CN54">
+        <v>2.835783384064257e-06</v>
+      </c>
+      <c r="CO54">
+        <v>3.887485721288956e-06</v>
+      </c>
+      <c r="CP54">
+        <v>0</v>
+      </c>
+      <c r="CQ54">
+        <v>2.139940959977216e-05</v>
+      </c>
+      <c r="CR54">
+        <v>9.262054614185826e-06</v>
+      </c>
+      <c r="CS54">
+        <v>5.317616526464661e-05</v>
+      </c>
+      <c r="CT54">
+        <v>3.002613695700327e-05</v>
+      </c>
+      <c r="CU54">
+        <v>1.082208167299018e-05</v>
+      </c>
+      <c r="CV54">
+        <v>3.66390231151768e-05</v>
+      </c>
+      <c r="CW54">
+        <v>1.062659809286863e-05</v>
+      </c>
+      <c r="CX54">
+        <v>6.99082103548224e-06</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -15394,6 +17461,45 @@
       <c r="CK55">
         <v>0.004661163554329039</v>
       </c>
+      <c r="CL55">
+        <v>0.00265450212020426</v>
+      </c>
+      <c r="CM55">
+        <v>0.004608275471665882</v>
+      </c>
+      <c r="CN55">
+        <v>0.004488403651373758</v>
+      </c>
+      <c r="CO55">
+        <v>0.002203363849543215</v>
+      </c>
+      <c r="CP55">
+        <v>0.002750113421584279</v>
+      </c>
+      <c r="CQ55">
+        <v>0.005227439248738839</v>
+      </c>
+      <c r="CR55">
+        <v>0.002133410369826077</v>
+      </c>
+      <c r="CS55">
+        <v>0.004513874701788358</v>
+      </c>
+      <c r="CT55">
+        <v>0.002335137022855752</v>
+      </c>
+      <c r="CU55">
+        <v>0.005860287285570595</v>
+      </c>
+      <c r="CV55">
+        <v>0.003737111446873939</v>
+      </c>
+      <c r="CW55">
+        <v>0.003603913779907784</v>
+      </c>
+      <c r="CX55">
+        <v>0.004192175507943503</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -15663,6 +17769,45 @@
       <c r="CK56">
         <v>0.004806343949318447</v>
       </c>
+      <c r="CL56">
+        <v>0.003283312405242434</v>
+      </c>
+      <c r="CM56">
+        <v>0.004830823228726889</v>
+      </c>
+      <c r="CN56">
+        <v>0.004142466470786021</v>
+      </c>
+      <c r="CO56">
+        <v>0.002362852827621477</v>
+      </c>
+      <c r="CP56">
+        <v>0.003188344297326349</v>
+      </c>
+      <c r="CQ56">
+        <v>0.0071911583893998</v>
+      </c>
+      <c r="CR56">
+        <v>0.00254838221531265</v>
+      </c>
+      <c r="CS56">
+        <v>0.007602166325504604</v>
+      </c>
+      <c r="CT56">
+        <v>0.004153208607041397</v>
+      </c>
+      <c r="CU56">
+        <v>0.005254361660596702</v>
+      </c>
+      <c r="CV56">
+        <v>0.005408256969444919</v>
+      </c>
+      <c r="CW56">
+        <v>0.00438739458698612</v>
+      </c>
+      <c r="CX56">
+        <v>0.005339243841486701</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -15932,6 +18077,45 @@
       <c r="CK57">
         <v>0.002423400721148859</v>
       </c>
+      <c r="CL57">
+        <v>0.002597980867096237</v>
+      </c>
+      <c r="CM57">
+        <v>0.004411077419466442</v>
+      </c>
+      <c r="CN57">
+        <v>0.00466097278204365</v>
+      </c>
+      <c r="CO57">
+        <v>0.001946720551860393</v>
+      </c>
+      <c r="CP57">
+        <v>0.002548108087377343</v>
+      </c>
+      <c r="CQ57">
+        <v>0.005636519188763483</v>
+      </c>
+      <c r="CR57">
+        <v>0.002539157203127462</v>
+      </c>
+      <c r="CS57">
+        <v>0.003606873765241942</v>
+      </c>
+      <c r="CT57">
+        <v>0.003339349549943208</v>
+      </c>
+      <c r="CU57">
+        <v>0.006957617136023169</v>
+      </c>
+      <c r="CV57">
+        <v>0.005134247140844699</v>
+      </c>
+      <c r="CW57">
+        <v>0.00276254632172682</v>
+      </c>
+      <c r="CX57">
+        <v>0.003644707291380199</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -16201,6 +18385,45 @@
       <c r="CK58">
         <v>0</v>
       </c>
+      <c r="CL58">
+        <v>0</v>
+      </c>
+      <c r="CM58">
+        <v>0</v>
+      </c>
+      <c r="CN58">
+        <v>0</v>
+      </c>
+      <c r="CO58">
+        <v>0</v>
+      </c>
+      <c r="CP58">
+        <v>3.920166288272836e-05</v>
+      </c>
+      <c r="CQ58">
+        <v>7.337189569491002e-05</v>
+      </c>
+      <c r="CR58">
+        <v>3.278779345574254e-05</v>
+      </c>
+      <c r="CS58">
+        <v>4.750960716651658e-05</v>
+      </c>
+      <c r="CT58">
+        <v>0</v>
+      </c>
+      <c r="CU58">
+        <v>0.0003937567290257245</v>
+      </c>
+      <c r="CV58">
+        <v>6.552702539929997e-05</v>
+      </c>
+      <c r="CW58">
+        <v>0</v>
+      </c>
+      <c r="CX58">
+        <v>4.302313056546096e-05</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -16470,6 +18693,45 @@
       <c r="CK59">
         <v>0.001329212560092725</v>
       </c>
+      <c r="CL59">
+        <v>0.0013191764878798</v>
+      </c>
+      <c r="CM59">
+        <v>0.001804420158259924</v>
+      </c>
+      <c r="CN59">
+        <v>0.001962514855597326</v>
+      </c>
+      <c r="CO59">
+        <v>0.001237218915189323</v>
+      </c>
+      <c r="CP59">
+        <v>0.002079751378199483</v>
+      </c>
+      <c r="CQ59">
+        <v>0.002418459977504331</v>
+      </c>
+      <c r="CR59">
+        <v>0.002078690997197583</v>
+      </c>
+      <c r="CS59">
+        <v>0.002805834130135838</v>
+      </c>
+      <c r="CT59">
+        <v>0.002072405825419142</v>
+      </c>
+      <c r="CU59">
+        <v>0.003478664327571</v>
+      </c>
+      <c r="CV59">
+        <v>0.003277848481051176</v>
+      </c>
+      <c r="CW59">
+        <v>0.001416690421398369</v>
+      </c>
+      <c r="CX59">
+        <v>0.002202224546481839</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -16739,6 +19001,45 @@
       <c r="CK60">
         <v>0.0003961599259553178</v>
       </c>
+      <c r="CL60">
+        <v>0.0007598025194301093</v>
+      </c>
+      <c r="CM60">
+        <v>0.0004614040302786522</v>
+      </c>
+      <c r="CN60">
+        <v>0.0007185564615791819</v>
+      </c>
+      <c r="CO60">
+        <v>0.0004270353220877954</v>
+      </c>
+      <c r="CP60">
+        <v>0.00148170877643717</v>
+      </c>
+      <c r="CQ60">
+        <v>0.0006565233843402562</v>
+      </c>
+      <c r="CR60">
+        <v>0.0008002962413906417</v>
+      </c>
+      <c r="CS60">
+        <v>0.0008659436849517688</v>
+      </c>
+      <c r="CT60">
+        <v>0.0005807808248437788</v>
+      </c>
+      <c r="CU60">
+        <v>0.0008433639126782379</v>
+      </c>
+      <c r="CV60">
+        <v>0.001115922444802428</v>
+      </c>
+      <c r="CW60">
+        <v>0.001063241533781551</v>
+      </c>
+      <c r="CX60">
+        <v>0.0007206024680602483</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -17008,6 +19309,45 @@
       <c r="CK61">
         <v>0.0003357708970113101</v>
       </c>
+      <c r="CL61">
+        <v>0.0005624267647242766</v>
+      </c>
+      <c r="CM61">
+        <v>0.0002642898483915623</v>
+      </c>
+      <c r="CN61">
+        <v>0.0004196686482691817</v>
+      </c>
+      <c r="CO61">
+        <v>0.0002538121091084293</v>
+      </c>
+      <c r="CP61">
+        <v>0.0006921139177632111</v>
+      </c>
+      <c r="CQ61">
+        <v>0.0005189919270800867</v>
+      </c>
+      <c r="CR61">
+        <v>0.0005379337917407419</v>
+      </c>
+      <c r="CS61">
+        <v>0.000864505483059529</v>
+      </c>
+      <c r="CT61">
+        <v>0.0003593306417856265</v>
+      </c>
+      <c r="CU61">
+        <v>0.0004935104286475407</v>
+      </c>
+      <c r="CV61">
+        <v>0.0007902988032076605</v>
+      </c>
+      <c r="CW61">
+        <v>0.0005129712280833227</v>
+      </c>
+      <c r="CX61">
+        <v>0.0002307676643208917</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -17277,6 +19617,45 @@
       <c r="CK62">
         <v>0.0001422306303552661</v>
       </c>
+      <c r="CL62">
+        <v>0.000339859629666231</v>
+      </c>
+      <c r="CM62">
+        <v>0.0003595916003881339</v>
+      </c>
+      <c r="CN62">
+        <v>6.630498055960643e-05</v>
+      </c>
+      <c r="CO62">
+        <v>0.0001106735450987269</v>
+      </c>
+      <c r="CP62">
+        <v>0.0004204007502921034</v>
+      </c>
+      <c r="CQ62">
+        <v>0.0004382179906774687</v>
+      </c>
+      <c r="CR62">
+        <v>0.0001579113811003371</v>
+      </c>
+      <c r="CS62">
+        <v>0.0004472485513544647</v>
+      </c>
+      <c r="CT62">
+        <v>0.0001798983789666803</v>
+      </c>
+      <c r="CU62">
+        <v>0.0003953929682978696</v>
+      </c>
+      <c r="CV62">
+        <v>0.0006053805319105915</v>
+      </c>
+      <c r="CW62">
+        <v>0.0002014372830782175</v>
+      </c>
+      <c r="CX62">
+        <v>0.0002107569181941361</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -17546,6 +19925,45 @@
       <c r="CK63">
         <v>5.532239557330542e-05</v>
       </c>
+      <c r="CL63">
+        <v>0.0005156359836727323</v>
+      </c>
+      <c r="CM63">
+        <v>0.0002718964277711037</v>
+      </c>
+      <c r="CN63">
+        <v>3.551861031756483e-05</v>
+      </c>
+      <c r="CO63">
+        <v>8.691842120132119e-05</v>
+      </c>
+      <c r="CP63">
+        <v>0.0002448180158019221</v>
+      </c>
+      <c r="CQ63">
+        <v>0.0004665593930417033</v>
+      </c>
+      <c r="CR63">
+        <v>7.12187327479006e-05</v>
+      </c>
+      <c r="CS63">
+        <v>0.0002194816589726616</v>
+      </c>
+      <c r="CT63">
+        <v>0.0001713138160607941</v>
+      </c>
+      <c r="CU63">
+        <v>0.0001890547805337564</v>
+      </c>
+      <c r="CV63">
+        <v>0.0008072700049513105</v>
+      </c>
+      <c r="CW63">
+        <v>0.0001959163184478229</v>
+      </c>
+      <c r="CX63">
+        <v>0.0001219706567592691</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -17815,6 +20233,45 @@
       <c r="CK64">
         <v>1.924257237332363e-05</v>
       </c>
+      <c r="CL64">
+        <v>0.0003200499209003167</v>
+      </c>
+      <c r="CM64">
+        <v>9.596344509568365e-05</v>
+      </c>
+      <c r="CN64">
+        <v>1.890506678192967e-05</v>
+      </c>
+      <c r="CO64">
+        <v>3.372953658558733e-05</v>
+      </c>
+      <c r="CP64">
+        <v>0.0001432520540963528</v>
+      </c>
+      <c r="CQ64">
+        <v>0.0002022624890892144</v>
+      </c>
+      <c r="CR64">
+        <v>2.917283714790897e-05</v>
+      </c>
+      <c r="CS64">
+        <v>8.408248709203913e-05</v>
+      </c>
+      <c r="CT64">
+        <v>6.903691094987225e-05</v>
+      </c>
+      <c r="CU64">
+        <v>7.445105385161377e-05</v>
+      </c>
+      <c r="CV64">
+        <v>0.0003137155355124872</v>
+      </c>
+      <c r="CW64">
+        <v>0.0001057326163051743</v>
+      </c>
+      <c r="CX64">
+        <v>3.441495590594635e-05</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -18084,6 +20541,45 @@
       <c r="CK65">
         <v>0.0006197829042960632</v>
       </c>
+      <c r="CL65">
+        <v>0.0002695752557958174</v>
+      </c>
+      <c r="CM65">
+        <v>0.0004308770522240337</v>
+      </c>
+      <c r="CN65">
+        <v>0.0003890876230293041</v>
+      </c>
+      <c r="CO65">
+        <v>0.0003380097276338793</v>
+      </c>
+      <c r="CP65">
+        <v>0.0005985671965359144</v>
+      </c>
+      <c r="CQ65">
+        <v>0.0001729444455118019</v>
+      </c>
+      <c r="CR65">
+        <v>0.0003895836225346946</v>
+      </c>
+      <c r="CS65">
+        <v>0.0006144953473031697</v>
+      </c>
+      <c r="CT65">
+        <v>0.0005434462045236258</v>
+      </c>
+      <c r="CU65">
+        <v>0.0006354310481963582</v>
+      </c>
+      <c r="CV65">
+        <v>0.0002774276241349804</v>
+      </c>
+      <c r="CW65">
+        <v>0.0002980904698021327</v>
+      </c>
+      <c r="CX65">
+        <v>0.0008768285370378071</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -18353,6 +20849,45 @@
       <c r="CK66">
         <v>5.617114832116859e-05</v>
       </c>
+      <c r="CL66">
+        <v>3.430183449750476e-05</v>
+      </c>
+      <c r="CM66">
+        <v>9.266969368626979e-05</v>
+      </c>
+      <c r="CN66">
+        <v>7.820267925530143e-05</v>
+      </c>
+      <c r="CO66">
+        <v>5.650799749095531e-05</v>
+      </c>
+      <c r="CP66">
+        <v>0.0001153459097701974</v>
+      </c>
+      <c r="CQ66">
+        <v>1.565877812662797e-05</v>
+      </c>
+      <c r="CR66">
+        <v>4.994115691539931e-05</v>
+      </c>
+      <c r="CS66">
+        <v>1.275547825736204e-05</v>
+      </c>
+      <c r="CT66">
+        <v>7.349869294827602e-05</v>
+      </c>
+      <c r="CU66">
+        <v>8.712052961633955e-05</v>
+      </c>
+      <c r="CV66">
+        <v>4.618253523237929e-05</v>
+      </c>
+      <c r="CW66">
+        <v>1.777210206055302e-05</v>
+      </c>
+      <c r="CX66">
+        <v>0.0001606678843538178</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -18622,6 +21157,45 @@
       <c r="CK67">
         <v>0.0002410723689784267</v>
       </c>
+      <c r="CL67">
+        <v>0.0004090003344398874</v>
+      </c>
+      <c r="CM67">
+        <v>0.0003257971854231443</v>
+      </c>
+      <c r="CN67">
+        <v>0.0002084285606469899</v>
+      </c>
+      <c r="CO67">
+        <v>0.000265458848818997</v>
+      </c>
+      <c r="CP67">
+        <v>0.000348572245121405</v>
+      </c>
+      <c r="CQ67">
+        <v>0.0001841294909028683</v>
+      </c>
+      <c r="CR67">
+        <v>0.0001757039404185046</v>
+      </c>
+      <c r="CS67">
+        <v>0.0003015559421011755</v>
+      </c>
+      <c r="CT67">
+        <v>0.0005175135187735101</v>
+      </c>
+      <c r="CU67">
+        <v>0.0003038275513048485</v>
+      </c>
+      <c r="CV67">
+        <v>0.000369947475519666</v>
+      </c>
+      <c r="CW67">
+        <v>0.0002899204482684514</v>
+      </c>
+      <c r="CX67">
+        <v>0.0005074440898270169</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -18891,6 +21465,45 @@
       <c r="CK68">
         <v>0.0002761114635446153</v>
       </c>
+      <c r="CL68">
+        <v>0.000244825256260813</v>
+      </c>
+      <c r="CM68">
+        <v>0.000298814038656651</v>
+      </c>
+      <c r="CN68">
+        <v>0.0002779442997552272</v>
+      </c>
+      <c r="CO68">
+        <v>0.0002656227666567323</v>
+      </c>
+      <c r="CP68">
+        <v>0.0006752647840328637</v>
+      </c>
+      <c r="CQ68">
+        <v>0.0001167700586851981</v>
+      </c>
+      <c r="CR68">
+        <v>0.0004358050871707577</v>
+      </c>
+      <c r="CS68">
+        <v>0.0003955672999998477</v>
+      </c>
+      <c r="CT68">
+        <v>0.0005404488231185163</v>
+      </c>
+      <c r="CU68">
+        <v>0.0004644397209472993</v>
+      </c>
+      <c r="CV68">
+        <v>0.0003339014858281474</v>
+      </c>
+      <c r="CW68">
+        <v>0.0003177619384641259</v>
+      </c>
+      <c r="CX68">
+        <v>0.0008840567940587105</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -19160,6 +21773,45 @@
       <c r="CK69">
         <v>0.000519081724377746</v>
       </c>
+      <c r="CL69">
+        <v>0.0005963735793366962</v>
+      </c>
+      <c r="CM69">
+        <v>0.0007657565511680062</v>
+      </c>
+      <c r="CN69">
+        <v>0.0006092400997753635</v>
+      </c>
+      <c r="CO69">
+        <v>0.0004482009894725291</v>
+      </c>
+      <c r="CP69">
+        <v>0.0009591690003801979</v>
+      </c>
+      <c r="CQ69">
+        <v>0.0003743806928478473</v>
+      </c>
+      <c r="CR69">
+        <v>0.0006358901733601164</v>
+      </c>
+      <c r="CS69">
+        <v>0.0008564010673591781</v>
+      </c>
+      <c r="CT69">
+        <v>0.001548863083289531</v>
+      </c>
+      <c r="CU69">
+        <v>0.0008328722915022437</v>
+      </c>
+      <c r="CV69">
+        <v>0.0007568808485358499</v>
+      </c>
+      <c r="CW69">
+        <v>0.0007543428708681876</v>
+      </c>
+      <c r="CX69">
+        <v>0.001863466207908741</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -19429,6 +22081,45 @@
       <c r="CK70">
         <v>0.0001805501650009551</v>
       </c>
+      <c r="CL70">
+        <v>0.0003701629113124321</v>
+      </c>
+      <c r="CM70">
+        <v>0.0002702670180592963</v>
+      </c>
+      <c r="CN70">
+        <v>0.0003242729563320483</v>
+      </c>
+      <c r="CO70">
+        <v>0.0001739287421833695</v>
+      </c>
+      <c r="CP70">
+        <v>0.0005612451725823114</v>
+      </c>
+      <c r="CQ70">
+        <v>0.0001623012459542996</v>
+      </c>
+      <c r="CR70">
+        <v>0.0002604752956930018</v>
+      </c>
+      <c r="CS70">
+        <v>0.0003280835949066974</v>
+      </c>
+      <c r="CT70">
+        <v>0.0006241687052062287</v>
+      </c>
+      <c r="CU70">
+        <v>0.0003279907530033536</v>
+      </c>
+      <c r="CV70">
+        <v>0.0002941336594463102</v>
+      </c>
+      <c r="CW70">
+        <v>0.0004071056763415615</v>
+      </c>
+      <c r="CX70">
+        <v>0.0005257912770280032</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -19698,6 +22389,45 @@
       <c r="CK71">
         <v>0.0001778922831492742</v>
       </c>
+      <c r="CL71">
+        <v>0</v>
+      </c>
+      <c r="CM71">
+        <v>0.0001263468427972041</v>
+      </c>
+      <c r="CN71">
+        <v>0</v>
+      </c>
+      <c r="CO71">
+        <v>4.70114269622367e-05</v>
+      </c>
+      <c r="CP71">
+        <v>0</v>
+      </c>
+      <c r="CQ71">
+        <v>2.289372758688617e-05</v>
+      </c>
+      <c r="CR71">
+        <v>0</v>
+      </c>
+      <c r="CS71">
+        <v>4.177504231222399e-05</v>
+      </c>
+      <c r="CT71">
+        <v>0</v>
+      </c>
+      <c r="CU71">
+        <v>0</v>
+      </c>
+      <c r="CV71">
+        <v>0</v>
+      </c>
+      <c r="CW71">
+        <v>0</v>
+      </c>
+      <c r="CX71">
+        <v>0.0001616066158272161</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -19967,6 +22697,45 @@
       <c r="CK72">
         <v>0.001755296299951906</v>
       </c>
+      <c r="CL72">
+        <v>0.002491375261290322</v>
+      </c>
+      <c r="CM72">
+        <v>0.001272333602054776</v>
+      </c>
+      <c r="CN72">
+        <v>0.001905168021897507</v>
+      </c>
+      <c r="CO72">
+        <v>0.002013184488483431</v>
+      </c>
+      <c r="CP72">
+        <v>0.002274301177215607</v>
+      </c>
+      <c r="CQ72">
+        <v>0.002064441522462396</v>
+      </c>
+      <c r="CR72">
+        <v>0.001510869789791658</v>
+      </c>
+      <c r="CS72">
+        <v>0.002001191183973842</v>
+      </c>
+      <c r="CT72">
+        <v>0.002283178429249346</v>
+      </c>
+      <c r="CU72">
+        <v>0.000828095036085487</v>
+      </c>
+      <c r="CV72">
+        <v>0.001021663991721187</v>
+      </c>
+      <c r="CW72">
+        <v>0.003346018144758539</v>
+      </c>
+      <c r="CX72">
+        <v>0.001561772918483176</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -20236,6 +23005,45 @@
       <c r="CK73">
         <v>0.002248190620542074</v>
       </c>
+      <c r="CL73">
+        <v>0.003645363428522968</v>
+      </c>
+      <c r="CM73">
+        <v>0.002500036218051992</v>
+      </c>
+      <c r="CN73">
+        <v>0.002556945012808989</v>
+      </c>
+      <c r="CO73">
+        <v>0.004076816152763407</v>
+      </c>
+      <c r="CP73">
+        <v>0.004384819099174994</v>
+      </c>
+      <c r="CQ73">
+        <v>0.003215281899027483</v>
+      </c>
+      <c r="CR73">
+        <v>0.004126047424310836</v>
+      </c>
+      <c r="CS73">
+        <v>0.003362660713041728</v>
+      </c>
+      <c r="CT73">
+        <v>0.005634415975557303</v>
+      </c>
+      <c r="CU73">
+        <v>0.001536943559894197</v>
+      </c>
+      <c r="CV73">
+        <v>0.003164167942329493</v>
+      </c>
+      <c r="CW73">
+        <v>0.006609121088087127</v>
+      </c>
+      <c r="CX73">
+        <v>0.00558073657164509</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -20505,6 +23313,45 @@
       <c r="CK74">
         <v>0.0007819793462755041</v>
       </c>
+      <c r="CL74">
+        <v>0.002262639369428049</v>
+      </c>
+      <c r="CM74">
+        <v>0.0008823657240183499</v>
+      </c>
+      <c r="CN74">
+        <v>0.001360954603591881</v>
+      </c>
+      <c r="CO74">
+        <v>0.001582048059281322</v>
+      </c>
+      <c r="CP74">
+        <v>0.002565719441603308</v>
+      </c>
+      <c r="CQ74">
+        <v>0.001393886672779226</v>
+      </c>
+      <c r="CR74">
+        <v>0.001690124282329603</v>
+      </c>
+      <c r="CS74">
+        <v>0.001288220971732568</v>
+      </c>
+      <c r="CT74">
+        <v>0.002270585542388764</v>
+      </c>
+      <c r="CU74">
+        <v>0.0006052587901851151</v>
+      </c>
+      <c r="CV74">
+        <v>0.001229636471553545</v>
+      </c>
+      <c r="CW74">
+        <v>0.003566827253888291</v>
+      </c>
+      <c r="CX74">
+        <v>0.001574647609014144</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -20774,6 +23621,45 @@
       <c r="CK75">
         <v>0.001847928384514657</v>
       </c>
+      <c r="CL75">
+        <v>0.002181609176229602</v>
+      </c>
+      <c r="CM75">
+        <v>0.001366037698868236</v>
+      </c>
+      <c r="CN75">
+        <v>0.001618079741972281</v>
+      </c>
+      <c r="CO75">
+        <v>0.002259535732234492</v>
+      </c>
+      <c r="CP75">
+        <v>0.001766655226392133</v>
+      </c>
+      <c r="CQ75">
+        <v>0.00184764954038592</v>
+      </c>
+      <c r="CR75">
+        <v>0.002321785533275062</v>
+      </c>
+      <c r="CS75">
+        <v>0.001993302837658792</v>
+      </c>
+      <c r="CT75">
+        <v>0.001960015540481686</v>
+      </c>
+      <c r="CU75">
+        <v>0.001003086036184289</v>
+      </c>
+      <c r="CV75">
+        <v>0.001548444231588539</v>
+      </c>
+      <c r="CW75">
+        <v>0.002619223023197745</v>
+      </c>
+      <c r="CX75">
+        <v>0.001403235079467378</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -21043,6 +23929,45 @@
       <c r="CK76">
         <v>0.001013571382319425</v>
       </c>
+      <c r="CL76">
+        <v>0.001107755475598082</v>
+      </c>
+      <c r="CM76">
+        <v>0.0005587990702459712</v>
+      </c>
+      <c r="CN76">
+        <v>0.0006812967334620133</v>
+      </c>
+      <c r="CO76">
+        <v>0.001436025496723245</v>
+      </c>
+      <c r="CP76">
+        <v>0.001441933982350826</v>
+      </c>
+      <c r="CQ76">
+        <v>0.0007927705586074468</v>
+      </c>
+      <c r="CR76">
+        <v>0.001900738827630669</v>
+      </c>
+      <c r="CS76">
+        <v>0.001550616267055438</v>
+      </c>
+      <c r="CT76">
+        <v>0.001216388869525616</v>
+      </c>
+      <c r="CU76">
+        <v>0.000501522222815691</v>
+      </c>
+      <c r="CV76">
+        <v>0.0009885705602535341</v>
+      </c>
+      <c r="CW76">
+        <v>0.001343191293947562</v>
+      </c>
+      <c r="CX76">
+        <v>0.0008478702099880353</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -21312,6 +24237,45 @@
       <c r="CK77">
         <v>0.002292870913419433</v>
       </c>
+      <c r="CL77">
+        <v>0.001330909147450925</v>
+      </c>
+      <c r="CM77">
+        <v>0.001004802966653884</v>
+      </c>
+      <c r="CN77">
+        <v>0.001349871543107917</v>
+      </c>
+      <c r="CO77">
+        <v>0.002204373808006539</v>
+      </c>
+      <c r="CP77">
+        <v>0.002013530425016459</v>
+      </c>
+      <c r="CQ77">
+        <v>0.001306743849053054</v>
+      </c>
+      <c r="CR77">
+        <v>0.001811213347111752</v>
+      </c>
+      <c r="CS77">
+        <v>0.002522490876701231</v>
+      </c>
+      <c r="CT77">
+        <v>0.001519935407171052</v>
+      </c>
+      <c r="CU77">
+        <v>0.001055335254302457</v>
+      </c>
+      <c r="CV77">
+        <v>0.001233961478289939</v>
+      </c>
+      <c r="CW77">
+        <v>0.001865498801492928</v>
+      </c>
+      <c r="CX77">
+        <v>0.002161292943398689</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -21581,6 +24545,45 @@
       <c r="CK78">
         <v>0.001217293727342607</v>
       </c>
+      <c r="CL78">
+        <v>0.0004455374127426266</v>
+      </c>
+      <c r="CM78">
+        <v>0.0002841064276129549</v>
+      </c>
+      <c r="CN78">
+        <v>0.0003155089914608732</v>
+      </c>
+      <c r="CO78">
+        <v>0.0008794753759528287</v>
+      </c>
+      <c r="CP78">
+        <v>0.0005747683034373197</v>
+      </c>
+      <c r="CQ78">
+        <v>0.0003178703783551724</v>
+      </c>
+      <c r="CR78">
+        <v>0.0004426230388812764</v>
+      </c>
+      <c r="CS78">
+        <v>0.0007930366237758976</v>
+      </c>
+      <c r="CT78">
+        <v>0.0004032567473757399</v>
+      </c>
+      <c r="CU78">
+        <v>0.0002750644890000364</v>
+      </c>
+      <c r="CV78">
+        <v>4.505383812712486e-05</v>
+      </c>
+      <c r="CW78">
+        <v>0.0003968424723175865</v>
+      </c>
+      <c r="CX78">
+        <v>0.0005605018674871984</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -21850,6 +24853,45 @@
       <c r="CK79">
         <v>0.000667674189243791</v>
       </c>
+      <c r="CL79">
+        <v>0.0002262304879934664</v>
+      </c>
+      <c r="CM79">
+        <v>0.0001162181744563529</v>
+      </c>
+      <c r="CN79">
+        <v>0.0001328458911414203</v>
+      </c>
+      <c r="CO79">
+        <v>0.0005589418417205433</v>
+      </c>
+      <c r="CP79">
+        <v>0.0004691226314694885</v>
+      </c>
+      <c r="CQ79">
+        <v>0.00013638856931751</v>
+      </c>
+      <c r="CR79">
+        <v>0.0003623550857510882</v>
+      </c>
+      <c r="CS79">
+        <v>0.0006169135296280185</v>
+      </c>
+      <c r="CT79">
+        <v>0.0002502618009591932</v>
+      </c>
+      <c r="CU79">
+        <v>0.0001375265420558758</v>
+      </c>
+      <c r="CV79">
+        <v>2.876364359161433e-05</v>
+      </c>
+      <c r="CW79">
+        <v>0.0002035089601628649</v>
+      </c>
+      <c r="CX79">
+        <v>0.000338669438242265</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -22119,6 +25161,45 @@
       <c r="CK80">
         <v>0.0003471326618013934</v>
       </c>
+      <c r="CL80">
+        <v>0.0002214134525971465</v>
+      </c>
+      <c r="CM80">
+        <v>0.0001112449479698116</v>
+      </c>
+      <c r="CN80">
+        <v>0.0001379535199840992</v>
+      </c>
+      <c r="CO80">
+        <v>0.0004938374435060546</v>
+      </c>
+      <c r="CP80">
+        <v>0.0004346639530708938</v>
+      </c>
+      <c r="CQ80">
+        <v>0.0001470618311387573</v>
+      </c>
+      <c r="CR80">
+        <v>0.0004312702980579179</v>
+      </c>
+      <c r="CS80">
+        <v>0.0004929532546742005</v>
+      </c>
+      <c r="CT80">
+        <v>0.0003578854791908641</v>
+      </c>
+      <c r="CU80">
+        <v>0.000163278177167522</v>
+      </c>
+      <c r="CV80">
+        <v>3.951705935718203e-05</v>
+      </c>
+      <c r="CW80">
+        <v>0.0001559978855406351</v>
+      </c>
+      <c r="CX80">
+        <v>0.0002944416254973871</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -22388,6 +25469,45 @@
       <c r="CK81">
         <v>0.0002521052803076011</v>
       </c>
+      <c r="CL81">
+        <v>0.0001520871685095711</v>
+      </c>
+      <c r="CM81">
+        <v>4.616584401343651e-05</v>
+      </c>
+      <c r="CN81">
+        <v>5.542479673722137e-05</v>
+      </c>
+      <c r="CO81">
+        <v>0.0002610665664409185</v>
+      </c>
+      <c r="CP81">
+        <v>0.0002472078758467757</v>
+      </c>
+      <c r="CQ81">
+        <v>7.279696222459362e-05</v>
+      </c>
+      <c r="CR81">
+        <v>0.0002724607917654477</v>
+      </c>
+      <c r="CS81">
+        <v>0.0003964643864630382</v>
+      </c>
+      <c r="CT81">
+        <v>0.000153983634082327</v>
+      </c>
+      <c r="CU81">
+        <v>5.882050761418597e-05</v>
+      </c>
+      <c r="CV81">
+        <v>2.451714295312434e-05</v>
+      </c>
+      <c r="CW81">
+        <v>0.0001046642566712386</v>
+      </c>
+      <c r="CX81">
+        <v>0.0001093504833046899</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -22657,6 +25777,45 @@
       <c r="CK82">
         <v>0.00037860574299592</v>
       </c>
+      <c r="CL82">
+        <v>0.0001772258744457847</v>
+      </c>
+      <c r="CM82">
+        <v>0.0001737223283589959</v>
+      </c>
+      <c r="CN82">
+        <v>0.0003457312345219074</v>
+      </c>
+      <c r="CO82">
+        <v>0.0005010837222438541</v>
+      </c>
+      <c r="CP82">
+        <v>0.0002889178656558198</v>
+      </c>
+      <c r="CQ82">
+        <v>0.0002979439375474106</v>
+      </c>
+      <c r="CR82">
+        <v>0.0002292401205295486</v>
+      </c>
+      <c r="CS82">
+        <v>0.0005966705387445916</v>
+      </c>
+      <c r="CT82">
+        <v>0.0001856636169789619</v>
+      </c>
+      <c r="CU82">
+        <v>0.0001453134139099339</v>
+      </c>
+      <c r="CV82">
+        <v>0.0004748191087177149</v>
+      </c>
+      <c r="CW82">
+        <v>0.0002781318750405454</v>
+      </c>
+      <c r="CX82">
+        <v>0.0002419154210933875</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -22926,6 +26085,45 @@
       <c r="CK83">
         <v>0.0001472634736134388</v>
       </c>
+      <c r="CL83">
+        <v>0.00026888759395124</v>
+      </c>
+      <c r="CM83">
+        <v>0.0001313559061276904</v>
+      </c>
+      <c r="CN83">
+        <v>0.0001852031761408171</v>
+      </c>
+      <c r="CO83">
+        <v>0.0003935304140503056</v>
+      </c>
+      <c r="CP83">
+        <v>0.0001682496963919255</v>
+      </c>
+      <c r="CQ83">
+        <v>0.0003172132263389575</v>
+      </c>
+      <c r="CR83">
+        <v>0.0001033883103632458</v>
+      </c>
+      <c r="CS83">
+        <v>0.0002928086391944161</v>
+      </c>
+      <c r="CT83">
+        <v>0.0001768039429316185</v>
+      </c>
+      <c r="CU83">
+        <v>6.948073885486311e-05</v>
+      </c>
+      <c r="CV83">
+        <v>0.0006331674113070705</v>
+      </c>
+      <c r="CW83">
+        <v>0.000270508875855792</v>
+      </c>
+      <c r="CX83">
+        <v>0.0001400029144655456</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -23195,6 +26393,45 @@
       <c r="CK84">
         <v>0.0003075125460333727</v>
       </c>
+      <c r="CL84">
+        <v>0.0003169832879695179</v>
+      </c>
+      <c r="CM84">
+        <v>0.0002945169429248058</v>
+      </c>
+      <c r="CN84">
+        <v>0.0005865601935485571</v>
+      </c>
+      <c r="CO84">
+        <v>0.0006195886513116727</v>
+      </c>
+      <c r="CP84">
+        <v>0.0003993392631760461</v>
+      </c>
+      <c r="CQ84">
+        <v>0.0004688474068231394</v>
+      </c>
+      <c r="CR84">
+        <v>0.0003132433691568465</v>
+      </c>
+      <c r="CS84">
+        <v>0.0004937479755541521</v>
+      </c>
+      <c r="CT84">
+        <v>0.0002975170777161766</v>
+      </c>
+      <c r="CU84">
+        <v>0.0002124294051932858</v>
+      </c>
+      <c r="CV84">
+        <v>0.0008951271564788351</v>
+      </c>
+      <c r="CW84">
+        <v>0.0005781481757850587</v>
+      </c>
+      <c r="CX84">
+        <v>0.0004036733701943405</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -23464,6 +26701,45 @@
       <c r="CK85">
         <v>0.0003170905821561044</v>
       </c>
+      <c r="CL85">
+        <v>0.0003920717010257156</v>
+      </c>
+      <c r="CM85">
+        <v>0.0003087400694430401</v>
+      </c>
+      <c r="CN85">
+        <v>0.0005413519201039261</v>
+      </c>
+      <c r="CO85">
+        <v>0.0006644371500501237</v>
+      </c>
+      <c r="CP85">
+        <v>0.000462974018617884</v>
+      </c>
+      <c r="CQ85">
+        <v>0.0006449727682130352</v>
+      </c>
+      <c r="CR85">
+        <v>0.000374172659097462</v>
+      </c>
+      <c r="CS85">
+        <v>0.0008315592436707915</v>
+      </c>
+      <c r="CT85">
+        <v>0.0005291554524716893</v>
+      </c>
+      <c r="CU85">
+        <v>0.000190465222580344</v>
+      </c>
+      <c r="CV85">
+        <v>0.001295406292101776</v>
+      </c>
+      <c r="CW85">
+        <v>0.0007038359771692907</v>
+      </c>
+      <c r="CX85">
+        <v>0.000514126985308307</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -23733,6 +27009,45 @@
       <c r="CK86">
         <v>0.0002606365678579593</v>
       </c>
+      <c r="CL86">
+        <v>0.0002346397656829022</v>
+      </c>
+      <c r="CM86">
+        <v>0.0001686977856420875</v>
+      </c>
+      <c r="CN86">
+        <v>0.0003425770092082133</v>
+      </c>
+      <c r="CO86">
+        <v>0.0003682578330996503</v>
+      </c>
+      <c r="CP86">
+        <v>0.0001865334580915653</v>
+      </c>
+      <c r="CQ86">
+        <v>0.0003706311534023484</v>
+      </c>
+      <c r="CR86">
+        <v>0.0002105522737622566</v>
+      </c>
+      <c r="CS86">
+        <v>0.0004929279346149182</v>
+      </c>
+      <c r="CT86">
+        <v>0.0001840746076744083</v>
+      </c>
+      <c r="CU86">
+        <v>0.0001243071054360823</v>
+      </c>
+      <c r="CV86">
+        <v>0.0006339310798692166</v>
+      </c>
+      <c r="CW86">
+        <v>0.0002789332153831445</v>
+      </c>
+      <c r="CX86">
+        <v>0.0001292734412068404</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -24002,6 +27317,45 @@
       <c r="CK87">
         <v>2.491996170139507e-05</v>
       </c>
+      <c r="CL87">
+        <v>1.549005712652553e-05</v>
+      </c>
+      <c r="CM87">
+        <v>1.550531118033892e-05</v>
+      </c>
+      <c r="CN87">
+        <v>2.791799056365745e-05</v>
+      </c>
+      <c r="CO87">
+        <v>4.428516372456349e-05</v>
+      </c>
+      <c r="CP87">
+        <v>3.166448010889414e-05</v>
+      </c>
+      <c r="CQ87">
+        <v>1.335362243876108e-05</v>
+      </c>
+      <c r="CR87">
+        <v>1.856534400108072e-05</v>
+      </c>
+      <c r="CS87">
+        <v>9.961189125714821e-06</v>
+      </c>
+      <c r="CT87">
+        <v>1.080389488367342e-05</v>
+      </c>
+      <c r="CU87">
+        <v>7.177255492440466e-06</v>
+      </c>
+      <c r="CV87">
+        <v>4.903898764499983e-05</v>
+      </c>
+      <c r="CW87">
+        <v>1.112554135431345e-05</v>
+      </c>
+      <c r="CX87">
+        <v>1.646263893303074e-05</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -24271,6 +27625,45 @@
       <c r="CK88">
         <v>0.000752800859531805</v>
       </c>
+      <c r="CL88">
+        <v>0.0003242777684190058</v>
+      </c>
+      <c r="CM88">
+        <v>0.0003993256854693258</v>
+      </c>
+      <c r="CN88">
+        <v>0.0002436744982815307</v>
+      </c>
+      <c r="CO88">
+        <v>0.0002805887732800504</v>
+      </c>
+      <c r="CP88">
+        <v>0.0001403783950391348</v>
+      </c>
+      <c r="CQ88">
+        <v>0.0004676497254247511</v>
+      </c>
+      <c r="CR88">
+        <v>0.0002730409516406411</v>
+      </c>
+      <c r="CS88">
+        <v>0.0008528071198482728</v>
+      </c>
+      <c r="CT88">
+        <v>0.0001790857230683672</v>
+      </c>
+      <c r="CU88">
+        <v>0.0003712320738465062</v>
+      </c>
+      <c r="CV88">
+        <v>0.0002266425131249835</v>
+      </c>
+      <c r="CW88">
+        <v>0.0003498808341520577</v>
+      </c>
+      <c r="CX88">
+        <v>0.0004368472233943665</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -24540,6 +27933,45 @@
       <c r="CK89">
         <v>0.0004379639857497937</v>
       </c>
+      <c r="CL89">
+        <v>0.0006094029194423272</v>
+      </c>
+      <c r="CM89">
+        <v>0.000629813109107161</v>
+      </c>
+      <c r="CN89">
+        <v>0.0007768287970072751</v>
+      </c>
+      <c r="CO89">
+        <v>0.0004623461310668433</v>
+      </c>
+      <c r="CP89">
+        <v>0.0006450906550322387</v>
+      </c>
+      <c r="CQ89">
+        <v>0.001099648975133999</v>
+      </c>
+      <c r="CR89">
+        <v>0.0004836489910718975</v>
+      </c>
+      <c r="CS89">
+        <v>0.0009710813983343689</v>
+      </c>
+      <c r="CT89">
+        <v>0.0006839631608317415</v>
+      </c>
+      <c r="CU89">
+        <v>0.000869702142002896</v>
+      </c>
+      <c r="CV89">
+        <v>0.0009897343885965687</v>
+      </c>
+      <c r="CW89">
+        <v>0.000734347756408395</v>
+      </c>
+      <c r="CX89">
+        <v>0.0008200591405605449</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -24809,6 +28241,45 @@
       <c r="CK90">
         <v>0.0003752773506305778</v>
       </c>
+      <c r="CL90">
+        <v>0.0005654938034801825</v>
+      </c>
+      <c r="CM90">
+        <v>0.0004563027439479823</v>
+      </c>
+      <c r="CN90">
+        <v>0.000534381004886538</v>
+      </c>
+      <c r="CO90">
+        <v>0.0004112310801495502</v>
+      </c>
+      <c r="CP90">
+        <v>0.0007854430457736084</v>
+      </c>
+      <c r="CQ90">
+        <v>0.000688584049651857</v>
+      </c>
+      <c r="CR90">
+        <v>0.0004545762087733513</v>
+      </c>
+      <c r="CS90">
+        <v>0.0007823047652104715</v>
+      </c>
+      <c r="CT90">
+        <v>0.0004756431142897082</v>
+      </c>
+      <c r="CU90">
+        <v>0.0005354141490463395</v>
+      </c>
+      <c r="CV90">
+        <v>0.0008670548835942515</v>
+      </c>
+      <c r="CW90">
+        <v>0.001021222513375404</v>
+      </c>
+      <c r="CX90">
+        <v>0.000951015214155764</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -25078,6 +28549,45 @@
       <c r="CK91">
         <v>7.159516734132247e-05</v>
       </c>
+      <c r="CL91">
+        <v>0.0001782252823354578</v>
+      </c>
+      <c r="CM91">
+        <v>6.587921254384218e-05</v>
+      </c>
+      <c r="CN91">
+        <v>0.000119759410263197</v>
+      </c>
+      <c r="CO91">
+        <v>0.0001014208889958514</v>
+      </c>
+      <c r="CP91">
+        <v>0.0003751161459334608</v>
+      </c>
+      <c r="CQ91">
+        <v>0.0001280835286040506</v>
+      </c>
+      <c r="CR91">
+        <v>0.0001524373793125032</v>
+      </c>
+      <c r="CS91">
+        <v>0.0002331386844100916</v>
+      </c>
+      <c r="CT91">
+        <v>0.0001189551087029427</v>
+      </c>
+      <c r="CU91">
+        <v>0.0001054204890847797</v>
+      </c>
+      <c r="CV91">
+        <v>0.0002151175797209501</v>
+      </c>
+      <c r="CW91">
+        <v>0.0002826338254356022</v>
+      </c>
+      <c r="CX91">
+        <v>0.0001621355553135559</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -25345,6 +28855,45 @@
         <v>0</v>
       </c>
       <c r="CK92">
+        <v>0</v>
+      </c>
+      <c r="CL92">
+        <v>0</v>
+      </c>
+      <c r="CM92">
+        <v>0.0001025831958015452</v>
+      </c>
+      <c r="CN92">
+        <v>0.0001109755424296107</v>
+      </c>
+      <c r="CO92">
+        <v>0</v>
+      </c>
+      <c r="CP92">
+        <v>3.225453275161194e-05</v>
+      </c>
+      <c r="CQ92">
+        <v>6.790986974413835e-05</v>
+      </c>
+      <c r="CR92">
+        <v>0</v>
+      </c>
+      <c r="CS92">
+        <v>0</v>
+      </c>
+      <c r="CT92">
+        <v>0</v>
+      </c>
+      <c r="CU92">
+        <v>7.906383109117235e-05</v>
+      </c>
+      <c r="CV92">
+        <v>6.185839928728554e-05</v>
+      </c>
+      <c r="CW92">
+        <v>0</v>
+      </c>
+      <c r="CX92">
         <v>0</v>
       </c>
     </row>
